--- a/Documentação/backLogs e Planos de ação/planoDeAção BackLog PlanilhaDeRiscos.xlsx
+++ b/Documentação/backLogs e Planos de ação/planoDeAção BackLog PlanilhaDeRiscos.xlsx
@@ -5,29 +5,62 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pehso\Downloads\git backaup\MushRoomCompany\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pehso\Downloads\git clone(2)\MushRoomCompany\Documentação\backLogs e Planos de ação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D090CFC1-E7EC-434B-9D35-3B9F0C19C11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C742B21-19BF-4842-93F4-3473FDCC6966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BackLogs" sheetId="1" r:id="rId1"/>
+    <sheet name="BackLogs" sheetId="4" r:id="rId1"/>
     <sheet name="Planilha de Riscos" sheetId="2" r:id="rId2"/>
     <sheet name="Plano de Ação" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="202">
   <si>
     <t>Tela inicial</t>
   </si>
@@ -515,6 +548,126 @@
   </si>
   <si>
     <t>Sistema o qual será computado o cadastro</t>
+  </si>
+  <si>
+    <t>Projeto Exemplo - Burndown</t>
+  </si>
+  <si>
+    <t>Pontuação Total</t>
+  </si>
+  <si>
+    <t>Sprint-1 (A)</t>
+  </si>
+  <si>
+    <t>Sprint-2 (B)</t>
+  </si>
+  <si>
+    <t>Sprint-1 (B)</t>
+  </si>
+  <si>
+    <t>Sprint-1 (C)</t>
+  </si>
+  <si>
+    <t>Pontuação Atingida</t>
+  </si>
+  <si>
+    <t>Sprint-2 (D)</t>
+  </si>
+  <si>
+    <t>Sprint-1 (D)</t>
+  </si>
+  <si>
+    <t>Sprint-2 (A)</t>
+  </si>
+  <si>
+    <t>Sprint-2 (C)</t>
+  </si>
+  <si>
+    <t>Sprint-3 (A)</t>
+  </si>
+  <si>
+    <t>Sprint-3 (B)</t>
+  </si>
+  <si>
+    <t>Sprint-3 (C)</t>
+  </si>
+  <si>
+    <t>Sprint-3 (D)</t>
+  </si>
+  <si>
+    <t>Pontuação Final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Git Hub</t>
+  </si>
+  <si>
+    <t>Criar e configurar projeto no git hub</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>Contextualização do negocío</t>
+  </si>
+  <si>
+    <t>Pesquisar o coxtexto aonde é inserido o nosso negocío</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>Justificativa do Projeto</t>
+  </si>
+  <si>
+    <t>Justificar o porque o nosso projeto deve ser inserido no mercado</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>Diagrama de visão de negocío</t>
+  </si>
+  <si>
+    <t>Diagrama para facilitar o entendimento da implantação do nosso projeto</t>
+  </si>
+  <si>
+    <t>Protótipo do site institucional</t>
+  </si>
+  <si>
+    <t>Criação do protótipo no nosso site institucional</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferramenta de gestão de projeto </t>
+  </si>
+  <si>
+    <t>Criar e organizar a ferramenta de gestão do projeto utilizando a plataforma (Trello)</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>Upar requisitos na ferramenta</t>
+  </si>
+  <si>
+    <t>Upar requisitos e atualizar na ferramenta de gestão de projeto (Trello)</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>Inserção e visualização dos registros no banco de dados</t>
+  </si>
+  <si>
+    <t>Sprin 3</t>
   </si>
 </sst>
 </file>
@@ -524,7 +677,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,23 +700,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Quire Sans"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -598,8 +738,77 @@
       <color rgb="FF000000"/>
       <name val="Merriweather"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -798,8 +1007,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1024,11 +1269,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1051,9 +1307,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1066,7 +1319,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1123,7 +1376,7 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1141,48 +1394,42 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="31" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="32" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="31" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="32" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="31" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="31" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1216,13 +1463,115 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1240,17 +1589,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1258,36 +1601,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1306,16 +1619,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1331,6 +1644,1031 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Gráfico</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> de </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Burndown</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37460329828341837"/>
+          <c:y val="3.4639101909767267E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.0536654107969122E-2"/>
+          <c:y val="0.12245441833751389"/>
+          <c:w val="0.92284497787208386"/>
+          <c:h val="0.76784249966574503"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>BackLogs!$L$4:$X$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B98-425B-96E6-22105B36A0ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="814723552"/>
+        <c:axId val="819904352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="814723552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="819904352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="819904352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="814723552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>27216</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>312964</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6FB2E12-FC13-40AD-B346-68C83B0DDF48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1629,11 +2967,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC1444C-8C51-4391-AC27-3F562DB04093}">
+  <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:J32"/>
+    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1647,23 +2985,51 @@
     <col min="7" max="7" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="7"/>
+    <col min="10" max="10" width="9.140625" style="7"/>
+    <col min="11" max="11" width="30.28515625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.85546875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="16" style="7" customWidth="1"/>
+    <col min="18" max="19" width="15.7109375" style="7" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" style="7" customWidth="1"/>
+    <col min="21" max="21" width="16.140625" style="7" customWidth="1"/>
+    <col min="22" max="22" width="16.28515625" style="7" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" style="7" customWidth="1"/>
+    <col min="24" max="24" width="15.85546875" style="7" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="63" t="s">
+    <row r="1" spans="1:24" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
-    </row>
-    <row r="2" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="96"/>
+      <c r="L1" s="89" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+    </row>
+    <row r="2" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
@@ -1682,18 +3048,57 @@
       <c r="F2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="L2" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="M2" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="N2" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="O2" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="P2" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q2" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="R2" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="S2" s="80" t="s">
+        <v>172</v>
+      </c>
+      <c r="T2" s="80" t="s">
+        <v>169</v>
+      </c>
+      <c r="U2" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="V2" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="W2" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="X2" s="81" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1708,21 +3113,62 @@
       <c r="E3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <v>8</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <v>1</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="K3" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="L3" s="82">
+        <f>SUM(G3:G33)</f>
+        <v>180</v>
+      </c>
+      <c r="M3" s="74">
+        <v>17</v>
+      </c>
+      <c r="N3" s="74">
+        <v>16</v>
+      </c>
+      <c r="O3" s="74">
+        <v>17</v>
+      </c>
+      <c r="P3" s="74">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="74">
+        <v>17</v>
+      </c>
+      <c r="R3" s="74">
+        <v>15</v>
+      </c>
+      <c r="S3" s="74">
+        <v>16</v>
+      </c>
+      <c r="T3" s="74">
+        <v>17</v>
+      </c>
+      <c r="U3" s="74">
+        <v>16</v>
+      </c>
+      <c r="V3" s="74">
+        <v>15</v>
+      </c>
+      <c r="W3" s="74">
+        <v>16</v>
+      </c>
+      <c r="X3" s="74"/>
+    </row>
+    <row r="4" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1737,21 +3183,88 @@
       <c r="E4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>8</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <v>6</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="K4" s="83" t="s">
+        <v>177</v>
+      </c>
+      <c r="L4" s="82">
+        <f>SUM(G3:G33)</f>
+        <v>180</v>
+      </c>
+      <c r="M4" s="75">
+        <f>IF(SUM(M3)&gt;0,L4-M3,
+)</f>
+        <v>163</v>
+      </c>
+      <c r="N4" s="75" cm="1">
+        <f t="array" ref="N4">IF(SUM(N3)&gt;0,M4-N3,n
+)</f>
+        <v>147</v>
+      </c>
+      <c r="O4" s="75" cm="1">
+        <f t="array" ref="O4">IF(SUM(O3)&gt;0,N4-O3,n
+)</f>
+        <v>130</v>
+      </c>
+      <c r="P4" s="75" cm="1">
+        <f t="array" ref="P4">IF(SUM(P3)&gt;0,O4-P3,n
+)</f>
+        <v>112</v>
+      </c>
+      <c r="Q4" s="75" cm="1">
+        <f t="array" ref="Q4">IF(SUM(Q3)&gt;0,P4-Q3,n
+)</f>
+        <v>95</v>
+      </c>
+      <c r="R4" s="75" cm="1">
+        <f t="array" ref="R4">IF(SUM(R3)&gt;0,Q4-R3,n
+)</f>
+        <v>80</v>
+      </c>
+      <c r="S4" s="75" cm="1">
+        <f t="array" ref="S4">IF(SUM(S3)&gt;0,R4-S3,n
+)</f>
+        <v>64</v>
+      </c>
+      <c r="T4" s="75" cm="1">
+        <f t="array" ref="T4">IF(SUM(T3)&gt;0,S4-T3,n
+)</f>
+        <v>47</v>
+      </c>
+      <c r="U4" s="75" cm="1">
+        <f t="array" ref="U4">IF(SUM(U3)&gt;0,T4-U3,n
+)</f>
+        <v>31</v>
+      </c>
+      <c r="V4" s="75" cm="1">
+        <f t="array" ref="V4">IF(SUM(V3)&gt;0,U4-V3,n
+)</f>
+        <v>16</v>
+      </c>
+      <c r="W4" s="75" cm="1">
+        <f t="array" ref="W4">IF(SUM(W3)&gt;0,V4-W3,n
+)</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="75" t="e" cm="1">
+        <f t="array" ref="X4">IF(SUM(X3)&gt;0,W4-X3,n
+)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1766,21 +3279,34 @@
       <c r="E5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>5</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <v>9</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+    </row>
+    <row r="6" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1795,62 +3321,61 @@
       <c r="E6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <v>13</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>8</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84" t="s">
+    </row>
+    <row r="7" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="98">
         <v>8</v>
       </c>
-      <c r="H7" s="66">
+      <c r="H7" s="97">
         <v>4</v>
       </c>
-      <c r="I7" s="75" t="s">
+      <c r="I7" s="104" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="76"/>
-    </row>
-    <row r="9" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="8" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="103"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="105"/>
+    </row>
+    <row r="9" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1865,21 +3390,21 @@
       <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <v>5</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <v>3</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>157</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1894,21 +3419,24 @@
       <c r="E10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <v>8</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <v>5</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="X10" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1923,21 +3451,21 @@
       <c r="E11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="17">
         <v>3</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <v>10</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1952,21 +3480,21 @@
       <c r="E12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <v>5</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="19">
         <v>12</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1981,21 +3509,21 @@
       <c r="E13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="18">
         <v>13</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <v>7</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -2010,21 +3538,21 @@
       <c r="E14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="16">
         <v>5</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <v>13</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -2039,21 +3567,21 @@
       <c r="E15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="17">
         <v>3</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <v>14</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -2068,195 +3596,195 @@
       <c r="E16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="17">
         <v>3</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <v>11</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="15">
         <v>8</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <v>2</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="49" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="15">
         <v>8</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="19">
         <v>15</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="49" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="16">
         <v>5</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="19">
         <v>16</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>156</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="49" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="16">
         <v>5</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="19">
         <v>17</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>141</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="49" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="16">
         <v>5</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="19">
         <v>18</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>138</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="49" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="15">
         <v>8</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="19">
         <v>19</v>
       </c>
-      <c r="I22" s="53" t="s">
+      <c r="I22" s="50" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>158</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -2265,27 +3793,27 @@
       <c r="C23" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="49" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="16">
         <v>5</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="19">
         <v>20</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>159</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -2294,27 +3822,27 @@
       <c r="C24" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="49" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="16">
         <v>5</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="19">
         <v>21</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -2323,726 +3851,1212 @@
       <c r="C25" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="49" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="16">
         <v>5</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="19">
         <v>22</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="I25" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="51"/>
-    </row>
-    <row r="32" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="86"/>
+    <row r="26" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="84" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="85">
+        <v>3</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="16">
+        <v>5</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="16">
+        <v>5</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="85">
+        <v>3</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="15">
+        <v>8</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="88">
+        <v>5</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="16">
+        <v>5</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="21" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="33" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="16">
+        <v>5</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
+    </row>
+    <row r="36" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F36" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G36" s="16">
         <v>5</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H36" s="19">
         <v>9</v>
       </c>
-      <c r="I33" s="22" t="s">
+      <c r="I36" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="J33" s="21">
+    </row>
+    <row r="37" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="16">
+        <v>5</v>
+      </c>
+      <c r="H37" s="19">
+        <v>3</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="16">
+        <v>5</v>
+      </c>
+      <c r="H38" s="19">
+        <v>12</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="15">
+        <v>8</v>
+      </c>
+      <c r="H39" s="19">
+        <v>2</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="17">
+        <v>13</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" s="9">
+        <v>5</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="85">
+        <v>5</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="17">
+        <v>3</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="15">
+        <v>8</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="87">
+        <v>5</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="86">
+        <v>5</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" s="86">
+        <v>5</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J48" s="47"/>
+    </row>
+    <row r="49" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="91"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="91"/>
+      <c r="G49" s="91"/>
+      <c r="H49" s="91"/>
+      <c r="I49" s="92"/>
+      <c r="J49" s="59"/>
+    </row>
+    <row r="50" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G34" s="17">
-        <v>5</v>
-      </c>
-      <c r="H34" s="20">
+      <c r="D50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="G50" s="52">
+        <v>8</v>
+      </c>
+      <c r="H50" s="53">
+        <v>2</v>
+      </c>
+      <c r="I50" s="54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I34" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="J34" s="21"/>
-    </row>
-    <row r="35" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" s="17">
-        <v>5</v>
-      </c>
-      <c r="H35" s="20">
-        <v>12</v>
-      </c>
-      <c r="I35" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="J35" s="21"/>
-    </row>
-    <row r="36" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="13" t="s">
+      <c r="D51" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="16" t="s">
+      <c r="E51" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G51" s="52">
         <v>8</v>
       </c>
-      <c r="H36" s="20">
-        <v>2</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="J36" s="21"/>
-    </row>
-    <row r="44" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-    </row>
-    <row r="45" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="G45" s="55">
-        <v>8</v>
-      </c>
-      <c r="H45" s="56">
-        <v>2</v>
-      </c>
-      <c r="I45" s="57" t="s">
+      <c r="H51" s="53">
+        <v>3</v>
+      </c>
+      <c r="I51" s="54" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="G46" s="55">
-        <v>8</v>
-      </c>
-      <c r="H46" s="56">
-        <v>3</v>
-      </c>
-      <c r="I46" s="57" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="58" t="s">
+    <row r="52" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F47" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="G47" s="59">
-        <v>13</v>
-      </c>
-      <c r="H47" s="56">
-        <v>8</v>
-      </c>
-      <c r="I47" s="57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="F48" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="G48" s="80">
-        <v>8</v>
-      </c>
-      <c r="H48" s="78">
-        <v>7</v>
-      </c>
-      <c r="I48" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="J48" s="49"/>
-    </row>
-    <row r="49" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="85"/>
-      <c r="B49" s="74"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="77"/>
-      <c r="J49" s="62"/>
-    </row>
-    <row r="50" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F50" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="G50" s="55">
-        <v>8</v>
-      </c>
-      <c r="H50" s="56">
-        <v>5</v>
-      </c>
-      <c r="I50" s="57" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F51" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="G51" s="60">
-        <v>3</v>
-      </c>
-      <c r="H51" s="56">
-        <v>11</v>
-      </c>
-      <c r="I51" s="57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F52" s="59" t="s">
+      <c r="E52" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F52" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="G52" s="59">
+      <c r="G52" s="56">
         <v>13</v>
       </c>
-      <c r="H52" s="56">
-        <v>6</v>
-      </c>
-      <c r="I52" s="57" t="s">
-        <v>64</v>
+      <c r="H52" s="53">
+        <v>8</v>
+      </c>
+      <c r="I52" s="54" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D53" s="52" t="s">
+      <c r="A53" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="G53" s="68">
+        <v>8</v>
+      </c>
+      <c r="H53" s="66">
         <v>7</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F53" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="G53" s="55">
-        <v>8</v>
-      </c>
-      <c r="H53" s="56">
-        <v>10</v>
-      </c>
-      <c r="I53" s="57" t="s">
-        <v>70</v>
+      <c r="I53" s="64" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F54" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="G54" s="55">
-        <v>8</v>
-      </c>
-      <c r="H54" s="56">
-        <v>9</v>
-      </c>
-      <c r="I54" s="57" t="s">
-        <v>70</v>
-      </c>
+      <c r="A54" s="73"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="65"/>
     </row>
     <row r="55" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D55" s="52" t="s">
+      <c r="A55" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F55" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="G55" s="61">
-        <v>3</v>
-      </c>
-      <c r="H55" s="56">
+      <c r="F55" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="G55" s="52">
+        <v>8</v>
+      </c>
+      <c r="H55" s="53">
+        <v>5</v>
+      </c>
+      <c r="I55" s="54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="I55" s="57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F56" s="60" t="s">
+      <c r="F56" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="G56" s="60">
+      <c r="G56" s="57">
         <v>3</v>
       </c>
-      <c r="H56" s="56">
+      <c r="H56" s="53">
+        <v>11</v>
+      </c>
+      <c r="I56" s="54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="G57" s="56">
         <v>13</v>
       </c>
-      <c r="I56" s="57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="54" t="s">
+      <c r="H57" s="53">
+        <v>6</v>
+      </c>
+      <c r="I57" s="54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F57" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="G57" s="60">
-        <v>3</v>
-      </c>
-      <c r="H57" s="56">
-        <v>14</v>
-      </c>
-      <c r="I57" s="57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="54" t="s">
-        <v>133</v>
-      </c>
       <c r="B58" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="D58" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="49" t="s">
         <v>7</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F58" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="G58" s="61">
-        <v>5</v>
-      </c>
-      <c r="H58" s="56">
-        <v>15</v>
-      </c>
-      <c r="I58" s="57" t="s">
-        <v>58</v>
+      <c r="F58" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="G58" s="52">
+        <v>8</v>
+      </c>
+      <c r="H58" s="53">
+        <v>10</v>
+      </c>
+      <c r="I58" s="54" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="54" t="s">
+      <c r="A59" s="51" t="s">
         <v>67</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D59" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F59" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="G59" s="61">
-        <v>5</v>
-      </c>
-      <c r="H59" s="56">
-        <v>4</v>
-      </c>
-      <c r="I59" s="57" t="s">
-        <v>58</v>
+      <c r="E59" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="G59" s="52">
+        <v>8</v>
+      </c>
+      <c r="H59" s="53">
+        <v>9</v>
+      </c>
+      <c r="I59" s="54" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="58" t="s">
-        <v>141</v>
+      <c r="A60" s="51" t="s">
+        <v>156</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="D60" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="49" t="s">
         <v>7</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F60" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="G60" s="55">
-        <v>8</v>
-      </c>
-      <c r="H60" s="56">
-        <v>1</v>
-      </c>
-      <c r="I60" s="57" t="s">
-        <v>144</v>
+      <c r="F60" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="G60" s="58">
+        <v>3</v>
+      </c>
+      <c r="H60" s="53">
+        <v>7</v>
+      </c>
+      <c r="I60" s="54" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="54" t="s">
-        <v>146</v>
+      <c r="A61" s="55" t="s">
+        <v>43</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D61" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F61" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="G61" s="61">
-        <v>5</v>
-      </c>
-      <c r="H61" s="56">
-        <v>16</v>
-      </c>
-      <c r="I61" s="57" t="s">
+      <c r="F61" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="G61" s="57">
+        <v>3</v>
+      </c>
+      <c r="H61" s="53">
+        <v>13</v>
+      </c>
+      <c r="I61" s="54" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="54" t="s">
-        <v>149</v>
+      <c r="A62" s="51" t="s">
+        <v>44</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D62" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F62" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="G62" s="61">
-        <v>5</v>
-      </c>
-      <c r="H62" s="56">
-        <v>17</v>
-      </c>
-      <c r="I62" s="57" t="s">
+      <c r="F62" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="G62" s="57">
+        <v>3</v>
+      </c>
+      <c r="H62" s="53">
+        <v>14</v>
+      </c>
+      <c r="I62" s="54" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="54" t="s">
-        <v>153</v>
+      <c r="A63" s="51" t="s">
+        <v>133</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D63" s="52" t="s">
-        <v>115</v>
+        <v>134</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D63" s="49" t="s">
+        <v>7</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F63" s="61" t="s">
+      <c r="F63" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="G63" s="61">
+      <c r="G63" s="58">
         <v>5</v>
       </c>
-      <c r="H63" s="56">
+      <c r="H63" s="53">
+        <v>15</v>
+      </c>
+      <c r="I63" s="54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D64" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="G64" s="58">
+        <v>5</v>
+      </c>
+      <c r="H64" s="53">
+        <v>4</v>
+      </c>
+      <c r="I64" s="54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="G65" s="52">
+        <v>8</v>
+      </c>
+      <c r="H65" s="53">
+        <v>1</v>
+      </c>
+      <c r="I65" s="54" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D66" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="G66" s="58">
+        <v>5</v>
+      </c>
+      <c r="H66" s="53">
+        <v>16</v>
+      </c>
+      <c r="I66" s="54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D67" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F67" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="G67" s="58">
+        <v>5</v>
+      </c>
+      <c r="H67" s="53">
+        <v>17</v>
+      </c>
+      <c r="I67" s="54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D68" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="G68" s="58">
+        <v>5</v>
+      </c>
+      <c r="H68" s="53">
         <v>18</v>
       </c>
-      <c r="I63" s="57" t="s">
+      <c r="I68" s="54" t="s">
         <v>58</v>
       </c>
     </row>
+    <row r="71" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" s="93"/>
+      <c r="C71" s="93"/>
+      <c r="D71" s="93"/>
+      <c r="E71" s="93"/>
+      <c r="F71" s="93"/>
+      <c r="G71" s="93"/>
+      <c r="H71" s="93"/>
+      <c r="I71" s="93"/>
+    </row>
+    <row r="72" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G72" s="16">
+        <v>5</v>
+      </c>
+      <c r="H72" s="19">
+        <v>13</v>
+      </c>
+      <c r="I72" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D73" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G73" s="15">
+        <v>8</v>
+      </c>
+      <c r="H73" s="19">
+        <v>15</v>
+      </c>
+      <c r="I73" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="E48:E49"/>
+  <mergeCells count="14">
+    <mergeCell ref="A71:I71"/>
+    <mergeCell ref="A35:I35"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="G7:G8"/>
@@ -3051,10 +5065,36 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="L1:X1"/>
+    <mergeCell ref="A49:I49"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{4D5150BD-60FC-42EC-8538-A0F404D0BC2C}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>BackLogs!L8:L8</xm:f>
+              <xm:sqref>L8</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3078,278 +5118,278 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="89"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+      <c r="A6" s="29">
         <v>1</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="30">
         <v>2</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="31">
         <v>1</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="32">
         <v>2</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="23" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="A7" s="29">
         <v>2</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="30">
         <v>3</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="30">
         <v>1</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="32">
         <v>3</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="23" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
+      <c r="A8" s="29">
         <v>3</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="30">
         <v>2</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="30">
         <v>2</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="32">
         <v>4</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
+      <c r="A9" s="29">
         <v>4</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="30">
         <v>1</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="30">
         <v>2</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <v>4</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="23" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>5</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>2</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>2</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="32">
         <v>2</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="23" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
+      <c r="A11" s="29">
         <v>6</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="30">
         <v>1</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="30">
         <v>3</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="32">
         <v>3</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="23" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+      <c r="A12" s="29">
         <v>7</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="30">
         <v>1</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="30">
         <v>1</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="32">
         <v>1</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+      <c r="A13" s="29">
         <v>8</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="30">
         <v>2</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="30">
         <v>1</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <v>2</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="36" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3366,7 +5406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -3382,135 +5422,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="69" x14ac:dyDescent="1.1499999999999999">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="95"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="114"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="98"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="117"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="37" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="39">
         <v>45208</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="G4" s="40"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="41">
         <v>45208</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="40" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="44">
         <v>45208</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="45"/>
+      <c r="G6" s="43"/>
     </row>
     <row r="7" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="41">
         <v>45208</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="42"/>
+      <c r="G7" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Documentação/backLogs e Planos de ação/planoDeAção BackLog PlanilhaDeRiscos.xlsx
+++ b/Documentação/backLogs e Planos de ação/planoDeAção BackLog PlanilhaDeRiscos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pehso\Downloads\git clone(2)\MushRoomCompany\Documentação\backLogs e Planos de ação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\Arquivos Temporários\MushRoomCompany\Documentação\backLogs e Planos de ação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C742B21-19BF-4842-93F4-3473FDCC6966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1564FA1F-E057-40F7-8408-34CC1DD6B0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BackLogs" sheetId="4" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="215">
   <si>
     <t>Tela inicial</t>
   </si>
@@ -668,6 +668,45 @@
   </si>
   <si>
     <t>Sprin 3</t>
+  </si>
+  <si>
+    <t>Diagrama de solução</t>
+  </si>
+  <si>
+    <t>DashBoard</t>
+  </si>
+  <si>
+    <t>Modulo Analytics</t>
+  </si>
+  <si>
+    <t>colcoar legendas no diagrama de solução</t>
+  </si>
+  <si>
+    <t>Tarefa Atrasada</t>
+  </si>
+  <si>
+    <t>Decidir quais graficos iram ser utilizados</t>
+  </si>
+  <si>
+    <t>Decidir os graficos que serão utilizados na nossa DashBoard</t>
+  </si>
+  <si>
+    <t>Daniel, Pedro, Arthur</t>
+  </si>
+  <si>
+    <t>Matteus</t>
+  </si>
+  <si>
+    <t>Davi, Leonardo, Matteus</t>
+  </si>
+  <si>
+    <t>Logica da calculadora</t>
+  </si>
+  <si>
+    <t>Leonardo, Matteus</t>
+  </si>
+  <si>
+    <t>Arrumar a logica da calculadora, tirar os bugs</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1550,19 +1589,10 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1599,6 +1629,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1629,6 +1668,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2970,7 +3011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC1444C-8C51-4391-AC27-3F562DB04093}">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A48" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
@@ -3003,31 +3044,31 @@
   <sheetData>
     <row r="1" spans="1:24" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="96"/>
-      <c r="L1" s="89" t="s">
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="93"/>
+      <c r="L1" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
     </row>
     <row r="2" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3335,44 +3376,44 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="98" t="s">
+      <c r="F7" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="98">
+      <c r="G7" s="95">
         <v>8</v>
       </c>
-      <c r="H7" s="97">
+      <c r="H7" s="94">
         <v>4</v>
       </c>
-      <c r="I7" s="104" t="s">
+      <c r="I7" s="101" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="103"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="105"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="102"/>
     </row>
     <row r="9" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -4088,17 +4129,17 @@
     </row>
     <row r="34" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="91"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
     </row>
     <row r="36" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
@@ -4436,17 +4477,17 @@
       <c r="J48" s="47"/>
     </row>
     <row r="49" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="91" t="s">
+      <c r="A49" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="91"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="91"/>
-      <c r="F49" s="91"/>
-      <c r="G49" s="91"/>
-      <c r="H49" s="91"/>
-      <c r="I49" s="92"/>
+      <c r="B49" s="90"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="90"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="90"/>
+      <c r="H49" s="90"/>
+      <c r="I49" s="105"/>
       <c r="J49" s="59"/>
     </row>
     <row r="50" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4983,17 +5024,17 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="93" t="s">
+      <c r="A71" s="89" t="s">
         <v>201</v>
       </c>
-      <c r="B71" s="93"/>
-      <c r="C71" s="93"/>
-      <c r="D71" s="93"/>
-      <c r="E71" s="93"/>
-      <c r="F71" s="93"/>
-      <c r="G71" s="93"/>
-      <c r="H71" s="93"/>
-      <c r="I71" s="93"/>
+      <c r="B71" s="89"/>
+      <c r="C71" s="89"/>
+      <c r="D71" s="89"/>
+      <c r="E71" s="89"/>
+      <c r="F71" s="89"/>
+      <c r="G71" s="89"/>
+      <c r="H71" s="89"/>
+      <c r="I71" s="89"/>
     </row>
     <row r="72" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
@@ -5055,6 +5096,8 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L1:X1"/>
+    <mergeCell ref="A49:I49"/>
     <mergeCell ref="A71:I71"/>
     <mergeCell ref="A35:I35"/>
     <mergeCell ref="B1:I1"/>
@@ -5067,8 +5110,6 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="L1:X1"/>
-    <mergeCell ref="A49:I49"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5404,15 +5445,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
@@ -5518,7 +5559,7 @@
         <v>115</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D6" s="44">
         <v>45208</v>
@@ -5539,7 +5580,7 @@
         <v>115</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D7" s="41">
         <v>45208</v>
@@ -5551,6 +5592,106 @@
         <v>129</v>
       </c>
       <c r="G7" s="40"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="118">
+        <v>45219</v>
+      </c>
+      <c r="E9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="118">
+        <v>45219</v>
+      </c>
+      <c r="E10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="118">
+        <v>45219</v>
+      </c>
+      <c r="E11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="118">
+        <v>45219</v>
+      </c>
+      <c r="E12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="118">
+        <v>45219</v>
+      </c>
+      <c r="E13" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5558,5 +5699,6 @@
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentação/backLogs e Planos de ação/planoDeAção BackLog PlanilhaDeRiscos.xlsx
+++ b/Documentação/backLogs e Planos de ação/planoDeAção BackLog PlanilhaDeRiscos.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\Arquivos Temporários\MushRoomCompany\Documentação\backLogs e Planos de ação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Desktop\Material Sptech\Projetos\MushRoomCompany\Documentação\backLogs e Planos de ação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1564FA1F-E057-40F7-8408-34CC1DD6B0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="BackLogs" sheetId="4" r:id="rId1"/>
     <sheet name="Planilha de Riscos" sheetId="2" r:id="rId2"/>
     <sheet name="Plano de Ação" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,14 +37,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -712,11 +711,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -845,6 +844,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="40">
@@ -1323,7 +1328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1589,10 +1594,21 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1629,15 +1645,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1668,8 +1675,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1846,6 +1854,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3008,14 +3017,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC1444C-8C51-4391-AC27-3F562DB04093}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="27.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="25" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" style="7" customWidth="1"/>
@@ -3042,35 +3051,35 @@
     <col min="25" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="53.25" customHeight="1">
       <c r="A1" s="8"/>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="93"/>
-      <c r="L1" s="103" t="s">
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="98"/>
+      <c r="L1" s="91" t="s">
         <v>162</v>
       </c>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-    </row>
-    <row r="2" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+    </row>
+    <row r="2" spans="1:24" ht="27.95" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
@@ -3138,7 +3147,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="27.95" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>32</v>
       </c>
@@ -3208,7 +3217,7 @@
       </c>
       <c r="X3" s="74"/>
     </row>
-    <row r="4" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="27.95" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>33</v>
       </c>
@@ -3304,7 +3313,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="27.95" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>34</v>
       </c>
@@ -3346,7 +3355,7 @@
       <c r="W5" s="78"/>
       <c r="X5" s="78"/>
     </row>
-    <row r="6" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="27.95" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>35</v>
       </c>
@@ -3375,47 +3384,47 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
+    <row r="7" spans="1:24" ht="27.95" customHeight="1">
+      <c r="A7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="97" t="s">
+      <c r="D7" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="98" t="s">
+      <c r="E7" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="95" t="s">
+      <c r="F7" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="95">
+      <c r="G7" s="100">
         <v>8</v>
       </c>
-      <c r="H7" s="94">
+      <c r="H7" s="99">
         <v>4</v>
       </c>
-      <c r="I7" s="101" t="s">
+      <c r="I7" s="106" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="102"/>
-    </row>
-    <row r="9" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="27.95" customHeight="1">
+      <c r="A8" s="105"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="107"/>
+    </row>
+    <row r="9" spans="1:24" ht="27.95" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>37</v>
       </c>
@@ -3444,7 +3453,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="27.95" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>157</v>
       </c>
@@ -3476,7 +3485,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="27.95" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>39</v>
       </c>
@@ -3505,7 +3514,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="27.95" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>40</v>
       </c>
@@ -3534,7 +3543,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="27.95" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>38</v>
       </c>
@@ -3563,7 +3572,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="27.95" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>42</v>
       </c>
@@ -3592,7 +3601,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="27.95" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>43</v>
       </c>
@@ -3621,7 +3630,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="27.95" customHeight="1">
       <c r="A16" s="10" t="s">
         <v>41</v>
       </c>
@@ -3650,7 +3659,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="27.95" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>56</v>
       </c>
@@ -3679,7 +3688,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="26.25" customHeight="1">
       <c r="A18" s="10" t="s">
         <v>44</v>
       </c>
@@ -3708,7 +3717,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="27.95" customHeight="1">
       <c r="A19" s="10" t="s">
         <v>67</v>
       </c>
@@ -3731,13 +3740,13 @@
         <v>5</v>
       </c>
       <c r="H19" s="19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I19" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="27.95" customHeight="1">
       <c r="A20" s="10" t="s">
         <v>156</v>
       </c>
@@ -3760,13 +3769,13 @@
         <v>5</v>
       </c>
       <c r="H20" s="19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I20" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="27.95" customHeight="1">
       <c r="A21" s="11" t="s">
         <v>141</v>
       </c>
@@ -3795,7 +3804,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="27.95" customHeight="1">
       <c r="A22" s="11" t="s">
         <v>138</v>
       </c>
@@ -3818,13 +3827,13 @@
         <v>8</v>
       </c>
       <c r="H22" s="19">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I22" s="50" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="27.95" customHeight="1">
       <c r="A23" s="10" t="s">
         <v>158</v>
       </c>
@@ -3847,13 +3856,13 @@
         <v>5</v>
       </c>
       <c r="H23" s="19">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="27.95" customHeight="1">
       <c r="A24" s="10" t="s">
         <v>159</v>
       </c>
@@ -3876,13 +3885,13 @@
         <v>5</v>
       </c>
       <c r="H24" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I24" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="27.95" customHeight="1">
       <c r="A25" s="10" t="s">
         <v>130</v>
       </c>
@@ -3905,13 +3914,13 @@
         <v>5</v>
       </c>
       <c r="H25" s="19">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I25" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="27.95" customHeight="1">
       <c r="A26" s="84" t="s">
         <v>181</v>
       </c>
@@ -3933,12 +3942,14 @@
       <c r="G26" s="85">
         <v>3</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>28</v>
+      </c>
       <c r="I26" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="27.95" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>184</v>
       </c>
@@ -3960,12 +3971,14 @@
       <c r="G27" s="16">
         <v>5</v>
       </c>
-      <c r="H27" s="19"/>
+      <c r="H27" s="19">
+        <v>22</v>
+      </c>
       <c r="I27" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="27.95" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>185</v>
       </c>
@@ -3987,12 +4000,14 @@
       <c r="G28" s="16">
         <v>5</v>
       </c>
-      <c r="H28" s="19"/>
+      <c r="H28" s="19">
+        <v>29</v>
+      </c>
       <c r="I28" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="27.95" customHeight="1">
       <c r="A29" s="11" t="s">
         <v>188</v>
       </c>
@@ -4014,12 +4029,14 @@
       <c r="G29" s="85">
         <v>3</v>
       </c>
-      <c r="H29" s="19"/>
+      <c r="H29" s="19">
+        <v>23</v>
+      </c>
       <c r="I29" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="27.95" customHeight="1">
       <c r="A30" s="10" t="s">
         <v>133</v>
       </c>
@@ -4041,12 +4058,14 @@
       <c r="G30" s="15">
         <v>8</v>
       </c>
-      <c r="H30" s="19"/>
+      <c r="H30" s="19">
+        <v>24</v>
+      </c>
       <c r="I30" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="27.95" customHeight="1">
       <c r="A31" s="11" t="s">
         <v>193</v>
       </c>
@@ -4068,12 +4087,14 @@
       <c r="G31" s="88">
         <v>5</v>
       </c>
-      <c r="H31" s="19"/>
+      <c r="H31" s="19">
+        <v>25</v>
+      </c>
       <c r="I31" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="27.95" customHeight="1">
       <c r="A32" s="11" t="s">
         <v>196</v>
       </c>
@@ -4095,12 +4116,14 @@
       <c r="G32" s="16">
         <v>5</v>
       </c>
-      <c r="H32" s="19"/>
+      <c r="H32" s="19">
+        <v>30</v>
+      </c>
       <c r="I32" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="24" customHeight="1">
       <c r="A33" s="11" t="s">
         <v>199</v>
       </c>
@@ -4122,26 +4145,28 @@
       <c r="G33" s="16">
         <v>5</v>
       </c>
-      <c r="H33" s="19"/>
+      <c r="H33" s="19">
+        <v>26</v>
+      </c>
       <c r="I33" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="90" t="s">
+    <row r="34" spans="1:10" ht="30.75" customHeight="1"/>
+    <row r="35" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A35" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-    </row>
-    <row r="36" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+    </row>
+    <row r="36" spans="1:10" ht="27.95" customHeight="1">
       <c r="A36" s="10" t="s">
         <v>34</v>
       </c>
@@ -4170,7 +4195,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="27.95" customHeight="1">
       <c r="A37" s="11" t="s">
         <v>37</v>
       </c>
@@ -4199,7 +4224,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="27.95" customHeight="1">
       <c r="A38" s="11" t="s">
         <v>40</v>
       </c>
@@ -4222,20 +4247,20 @@
         <v>5</v>
       </c>
       <c r="H38" s="19">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I38" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="27.95" customHeight="1">
       <c r="A39" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="120" t="s">
         <v>55</v>
       </c>
       <c r="D39" s="12" t="s">
@@ -4257,7 +4282,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="27.75" customHeight="1">
       <c r="A40" s="11" t="s">
         <v>181</v>
       </c>
@@ -4279,12 +4304,14 @@
       <c r="G40" s="17">
         <v>13</v>
       </c>
-      <c r="H40" s="19"/>
+      <c r="H40" s="19">
+        <v>7</v>
+      </c>
       <c r="I40" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="45.75" hidden="1" customHeight="1">
       <c r="A41" s="9" t="s">
         <v>184</v>
       </c>
@@ -4311,7 +4338,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="45.75" customHeight="1">
       <c r="A42" s="11" t="s">
         <v>185</v>
       </c>
@@ -4333,12 +4360,14 @@
       <c r="G42" s="85">
         <v>5</v>
       </c>
-      <c r="H42" s="19"/>
+      <c r="H42" s="19">
+        <v>3</v>
+      </c>
       <c r="I42" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="27.95" customHeight="1">
       <c r="A43" s="11" t="s">
         <v>188</v>
       </c>
@@ -4360,12 +4389,14 @@
       <c r="G43" s="17">
         <v>3</v>
       </c>
-      <c r="H43" s="19"/>
+      <c r="H43" s="19">
+        <v>4</v>
+      </c>
       <c r="I43" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="27.95" customHeight="1">
       <c r="A44" s="10" t="s">
         <v>133</v>
       </c>
@@ -4387,12 +4418,14 @@
       <c r="G44" s="15">
         <v>8</v>
       </c>
-      <c r="H44" s="19"/>
+      <c r="H44" s="19">
+        <v>2</v>
+      </c>
       <c r="I44" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="27.95" customHeight="1">
       <c r="A45" s="11" t="s">
         <v>193</v>
       </c>
@@ -4414,12 +4447,14 @@
       <c r="G45" s="87">
         <v>5</v>
       </c>
-      <c r="H45" s="19"/>
+      <c r="H45" s="19">
+        <v>5</v>
+      </c>
       <c r="I45" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="27.95" customHeight="1">
       <c r="A46" s="11" t="s">
         <v>196</v>
       </c>
@@ -4441,12 +4476,14 @@
       <c r="G46" s="86">
         <v>5</v>
       </c>
-      <c r="H46" s="19"/>
+      <c r="H46" s="19">
+        <v>6</v>
+      </c>
       <c r="I46" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="27.95" customHeight="1">
       <c r="A47" s="11" t="s">
         <v>199</v>
       </c>
@@ -4468,29 +4505,31 @@
       <c r="G47" s="86">
         <v>5</v>
       </c>
-      <c r="H47" s="19"/>
+      <c r="H47" s="19">
+        <v>1</v>
+      </c>
       <c r="I47" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="27.95" customHeight="1">
       <c r="J48" s="47"/>
     </row>
-    <row r="49" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="90" t="s">
+    <row r="49" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A49" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="90"/>
-      <c r="C49" s="90"/>
-      <c r="D49" s="90"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="90"/>
-      <c r="H49" s="90"/>
-      <c r="I49" s="105"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="93"/>
+      <c r="I49" s="94"/>
       <c r="J49" s="59"/>
     </row>
-    <row r="50" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="27.95" customHeight="1">
       <c r="A50" s="51" t="s">
         <v>32</v>
       </c>
@@ -4519,7 +4558,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="27.95" customHeight="1">
       <c r="A51" s="51" t="s">
         <v>33</v>
       </c>
@@ -4548,7 +4587,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="27.95" customHeight="1">
       <c r="A52" s="55" t="s">
         <v>35</v>
       </c>
@@ -4577,7 +4616,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="27.95" customHeight="1">
       <c r="A53" s="72" t="s">
         <v>36</v>
       </c>
@@ -4606,7 +4645,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="27.95" customHeight="1">
       <c r="A54" s="73"/>
       <c r="B54" s="63"/>
       <c r="C54" s="63"/>
@@ -4617,7 +4656,7 @@
       <c r="H54" s="67"/>
       <c r="I54" s="65"/>
     </row>
-    <row r="55" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="27.95" customHeight="1">
       <c r="A55" s="51" t="s">
         <v>38</v>
       </c>
@@ -4646,7 +4685,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="27.95" customHeight="1">
       <c r="A56" s="55" t="s">
         <v>39</v>
       </c>
@@ -4675,7 +4714,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="27.95" customHeight="1">
       <c r="A57" s="51" t="s">
         <v>41</v>
       </c>
@@ -4704,7 +4743,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="27.95" customHeight="1">
       <c r="A58" s="51" t="s">
         <v>44</v>
       </c>
@@ -4733,7 +4772,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="27.95" customHeight="1">
       <c r="A59" s="51" t="s">
         <v>67</v>
       </c>
@@ -4762,7 +4801,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="27.95" customHeight="1">
       <c r="A60" s="51" t="s">
         <v>156</v>
       </c>
@@ -4791,7 +4830,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="27.95" customHeight="1">
       <c r="A61" s="55" t="s">
         <v>43</v>
       </c>
@@ -4820,7 +4859,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="27.95" customHeight="1">
       <c r="A62" s="51" t="s">
         <v>44</v>
       </c>
@@ -4849,7 +4888,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="27.95" customHeight="1">
       <c r="A63" s="51" t="s">
         <v>133</v>
       </c>
@@ -4878,7 +4917,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="27.95" customHeight="1">
       <c r="A64" s="51" t="s">
         <v>67</v>
       </c>
@@ -4907,7 +4946,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="27.95" customHeight="1">
       <c r="A65" s="55" t="s">
         <v>141</v>
       </c>
@@ -4936,7 +4975,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="27.95" customHeight="1">
       <c r="A66" s="51" t="s">
         <v>146</v>
       </c>
@@ -4965,7 +5004,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="27.95" customHeight="1">
       <c r="A67" s="51" t="s">
         <v>149</v>
       </c>
@@ -4994,7 +5033,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="27.95" customHeight="1">
       <c r="A68" s="51" t="s">
         <v>153</v>
       </c>
@@ -5023,20 +5062,20 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="89" t="s">
+    <row r="71" spans="1:9" ht="27.95" customHeight="1">
+      <c r="A71" s="95" t="s">
         <v>201</v>
       </c>
-      <c r="B71" s="89"/>
-      <c r="C71" s="89"/>
-      <c r="D71" s="89"/>
-      <c r="E71" s="89"/>
-      <c r="F71" s="89"/>
-      <c r="G71" s="89"/>
-      <c r="H71" s="89"/>
-      <c r="I71" s="89"/>
-    </row>
-    <row r="72" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="95"/>
+      <c r="C71" s="95"/>
+      <c r="D71" s="95"/>
+      <c r="E71" s="95"/>
+      <c r="F71" s="95"/>
+      <c r="G71" s="95"/>
+      <c r="H71" s="95"/>
+      <c r="I71" s="95"/>
+    </row>
+    <row r="72" spans="1:9" ht="27.95" customHeight="1">
       <c r="A72" s="11" t="s">
         <v>42</v>
       </c>
@@ -5058,14 +5097,12 @@
       <c r="G72" s="16">
         <v>5</v>
       </c>
-      <c r="H72" s="19">
-        <v>13</v>
-      </c>
+      <c r="H72" s="19"/>
       <c r="I72" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="27.95" customHeight="1">
       <c r="A73" s="10" t="s">
         <v>44</v>
       </c>
@@ -5087,9 +5124,7 @@
       <c r="G73" s="15">
         <v>8</v>
       </c>
-      <c r="H73" s="19">
-        <v>15</v>
-      </c>
+      <c r="H73" s="19"/>
       <c r="I73" s="22" t="s">
         <v>60</v>
       </c>
@@ -5117,7 +5152,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{4D5150BD-60FC-42EC-8538-A0F404D0BC2C}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5140,14 +5175,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
@@ -5158,49 +5193,49 @@
     <col min="8" max="8" width="67" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="108"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="110"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="110"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="110"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="26" t="s">
         <v>74</v>
       </c>
@@ -5226,7 +5261,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="29">
         <v>1</v>
       </c>
@@ -5252,7 +5287,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="29">
         <v>2</v>
       </c>
@@ -5278,7 +5313,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="29">
         <v>3</v>
       </c>
@@ -5304,7 +5339,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="29">
         <v>4</v>
       </c>
@@ -5330,7 +5365,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="11.25" customHeight="1">
       <c r="A10" s="15">
         <v>5</v>
       </c>
@@ -5356,7 +5391,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="29">
         <v>6</v>
       </c>
@@ -5382,7 +5417,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="29">
         <v>7</v>
       </c>
@@ -5408,7 +5443,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30">
       <c r="A13" s="29">
         <v>8</v>
       </c>
@@ -5434,7 +5469,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="11.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H4"/>
@@ -5444,14 +5479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
@@ -5462,29 +5497,29 @@
     <col min="7" max="7" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="69" x14ac:dyDescent="1.1499999999999999">
-      <c r="A1" s="112" t="s">
+    <row r="1" spans="1:7" ht="60">
+      <c r="A1" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="114"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="116"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="117"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="119"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="37" t="s">
         <v>109</v>
       </c>
@@ -5507,7 +5542,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="48" customHeight="1">
       <c r="A4" s="38" t="s">
         <v>114</v>
       </c>
@@ -5528,7 +5563,7 @@
       </c>
       <c r="G4" s="38"/>
     </row>
-    <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="48" customHeight="1">
       <c r="A5" s="40" t="s">
         <v>119</v>
       </c>
@@ -5551,7 +5586,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="48" customHeight="1">
       <c r="A6" s="43" t="s">
         <v>124</v>
       </c>
@@ -5572,7 +5607,7 @@
       </c>
       <c r="G6" s="43"/>
     </row>
-    <row r="7" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="50.25" customHeight="1">
       <c r="A7" s="46" t="s">
         <v>127</v>
       </c>
@@ -5593,7 +5628,7 @@
       </c>
       <c r="G7" s="40"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>202</v>
       </c>
@@ -5603,7 +5638,7 @@
       <c r="C9" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="118">
+      <c r="D9" s="89">
         <v>45219</v>
       </c>
       <c r="E9" t="s">
@@ -5613,7 +5648,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>203</v>
       </c>
@@ -5623,7 +5658,7 @@
       <c r="C10" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="118">
+      <c r="D10" s="89">
         <v>45219</v>
       </c>
       <c r="E10" t="s">
@@ -5633,7 +5668,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>204</v>
       </c>
@@ -5643,14 +5678,14 @@
       <c r="C11" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="118">
+      <c r="D11" s="89">
         <v>45219</v>
       </c>
       <c r="E11" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>207</v>
       </c>
@@ -5660,7 +5695,7 @@
       <c r="C12" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="118">
+      <c r="D12" s="89">
         <v>45219</v>
       </c>
       <c r="E12" t="s">
@@ -5670,7 +5705,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>212</v>
       </c>
@@ -5680,7 +5715,7 @@
       <c r="C13" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="118">
+      <c r="D13" s="89">
         <v>45219</v>
       </c>
       <c r="E13" t="s">
@@ -5690,8 +5725,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="119"/>
+    <row r="20" spans="5:5">
+      <c r="E20" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Documentação/backLogs e Planos de ação/planoDeAção BackLog PlanilhaDeRiscos.xlsx
+++ b/Documentação/backLogs e Planos de ação/planoDeAção BackLog PlanilhaDeRiscos.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27016"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Desktop\Material Sptech\Projetos\MushRoomCompany\Documentação\backLogs e Planos de ação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pehso\Downloads\git clone(2)\MushRoomCompany\Documentação\backLogs e Planos de ação\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BE6C2BB-149A-4F62-B9D0-3121BDBA4FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BackLogs" sheetId="4" r:id="rId1"/>
     <sheet name="Planilha de Riscos" sheetId="2" r:id="rId2"/>
     <sheet name="Plano de Ação" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,14 +38,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -59,7 +60,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="223">
+  <si>
+    <t>Product Backlog</t>
+  </si>
+  <si>
+    <t>Projeto Exemplo - Burndown</t>
+  </si>
+  <si>
+    <t>Atividade/ Requisitos</t>
+  </si>
+  <si>
+    <t>Requisito</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importancia </t>
+  </si>
+  <si>
+    <t>Classificação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamanho </t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Prioridade</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Pontuação Total</t>
+  </si>
+  <si>
+    <t>Sprint-1 (A)</t>
+  </si>
+  <si>
+    <t>Sprint-1 (B)</t>
+  </si>
+  <si>
+    <t>Sprint-1 (C)</t>
+  </si>
+  <si>
+    <t>Sprint-1 (D)</t>
+  </si>
+  <si>
+    <t>Sprint-2 (A)</t>
+  </si>
+  <si>
+    <t>Sprint-2 (B)</t>
+  </si>
+  <si>
+    <t>Sprint-2 (C)</t>
+  </si>
+  <si>
+    <t>Sprint-2 (D)</t>
+  </si>
+  <si>
+    <t>Sprint-3 (A)</t>
+  </si>
+  <si>
+    <t>Sprint-3 (B)</t>
+  </si>
+  <si>
+    <t>Sprint-3 (C)</t>
+  </si>
+  <si>
+    <t>Sprint-3 (D)</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
   <si>
     <t>Tela inicial</t>
   </si>
@@ -70,49 +146,136 @@
     <t>Essencial </t>
   </si>
   <si>
+    <t>Funcional</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>SP2</t>
+  </si>
+  <si>
+    <t>Pontuação Atingida</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Área/Sistema de login</t>
+  </si>
+  <si>
     <t>Área de login com autenticação de usuário e senha</t>
   </si>
   <si>
+    <t>Pontuação Final</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
     <t>Calculadora financeira</t>
   </si>
   <si>
     <t>Calculadora financeira para calcular perdas e lucros </t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>SP1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Modulo de Analytics(NODE)</t>
+  </si>
+  <si>
     <t>Gráficos de temperatura e umidade dentro do cultivo</t>
   </si>
   <si>
     <t>Essencial</t>
   </si>
   <si>
+    <t>Não Funcional</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>Conexão (ARC COMP E BD)</t>
+  </si>
+  <si>
     <t>Garantir o fluxo de dados entre os sensores e o Banco de dados</t>
   </si>
   <si>
+    <t>A3</t>
+  </si>
+  <si>
     <t>Configuração do Arduino e sensores</t>
   </si>
   <si>
     <t>Estruturar e montar o circuito do Arduino, junto ao script para os sensores</t>
   </si>
   <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>Tela/Sistema de Cadastro</t>
+  </si>
+  <si>
+    <t>Sistema o qual será computado o cadastro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
     <t>Projetos atualizado no GitHub</t>
   </si>
   <si>
     <t xml:space="preserve">Atualização constante do projeto no GIT, subindo todas as alterações </t>
   </si>
   <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
     <t>Planilha de Riscos do Projeto</t>
   </si>
   <si>
+    <t>Planilha que determina os riscos e a visão de como evitar o mitigar</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>Site Estático Dashboard</t>
+  </si>
+  <si>
+    <t>Pagina da Dashboard no site instituicional onde o usuario vai poder visualizar as informações passadas pelos sensores</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>Diagrama de Solução</t>
+  </si>
+  <si>
     <t>***********A COMPLETAR************</t>
   </si>
   <si>
-    <t>Site Estático Dashboard</t>
-  </si>
-  <si>
-    <t>Pagina da Dashboard no site instituicional onde o usuario vai poder visualizar as informações passadas pelos sensores</t>
-  </si>
-  <si>
-    <t>Diagrama de Solução</t>
+    <t>SP3</t>
+  </si>
+  <si>
+    <t>A8</t>
   </si>
   <si>
     <t>Atividades organizadas no Trello</t>
@@ -121,148 +284,193 @@
     <t>Requisitos do Projeto, da Sprint e da semana atualizadas no trello, classificadas e organizadas</t>
   </si>
   <si>
+    <t>R6</t>
+  </si>
+  <si>
     <t>Modelagem Lógica do Projeto</t>
   </si>
   <si>
     <t xml:space="preserve">Modelagem das tabelas do banco de dados do projeto </t>
   </si>
   <si>
-    <t>Requisito</t>
-  </si>
-  <si>
-    <t>Descrição</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importancia </t>
-  </si>
-  <si>
-    <t>Classificação</t>
-  </si>
-  <si>
-    <t>Funcional</t>
-  </si>
-  <si>
-    <t>Não Funcional</t>
-  </si>
-  <si>
-    <t>Área/Sistema de login</t>
-  </si>
-  <si>
-    <t>Tela/Sistema de Cadastro</t>
-  </si>
-  <si>
-    <t>Modulo de Analytics(NODE)</t>
-  </si>
-  <si>
-    <t>Conexão (ARC COMP E BD)</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>Banco de  Dados</t>
+  </si>
+  <si>
+    <t>Alocar e estruturar tabelas em um banco de dados MySQL para registro de todos os dados do sistema</t>
   </si>
   <si>
     <t>R7</t>
   </si>
   <si>
-    <t>Atividade/ Requisitos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamanho </t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
-    <t>Planilha que determina os riscos e a visão de como evitar o mitigar</t>
-  </si>
-  <si>
-    <t>Numero</t>
-  </si>
-  <si>
-    <t>Prioridade</t>
-  </si>
-  <si>
-    <t>Banco de  Dados</t>
-  </si>
-  <si>
-    <t>Alocar e estruturar tabelas em um banco de dados MySQL para registro de todos os dados do sistema</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>Sprint</t>
-  </si>
-  <si>
-    <t>SP2</t>
-  </si>
-  <si>
-    <t>SP1</t>
-  </si>
-  <si>
-    <t>SP3</t>
+    <t>Conexão do Banco Usuario</t>
+  </si>
+  <si>
+    <t>Conectar o banco de dados do Usuario com o Site Estatico</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>Conexão do banco Sensor</t>
+  </si>
+  <si>
+    <t>Conectar o banco de dados do Usuario com os sensores</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>Tela de Cadastro</t>
+  </si>
+  <si>
+    <t>Tela para o site institucional onde o usuário vai poder fazer seu cadastro.</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>Banco de dados Sensor</t>
+  </si>
+  <si>
+    <t>Armazenar os dados do sensor</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>Documentação</t>
+  </si>
+  <si>
+    <t>Dar continuidade no projeto atualizando a documentação</t>
+  </si>
+  <si>
+    <t>Todas</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Header/Navbar navegação</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>Infromações de contato</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>Detalhes Calculadora e Dashboard</t>
+  </si>
+  <si>
+    <t>detalhes de como se usar as funções</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>Git Hub</t>
+  </si>
+  <si>
+    <t>Criar e configurar projeto no git hub</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>Contextualização do negocío</t>
+  </si>
+  <si>
+    <t>Pesquisar o coxtexto aonde é inserido o nosso negocío</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>Justificativa do Projeto</t>
+  </si>
+  <si>
+    <t>Justificar o porque o nosso projeto deve ser inserido no mercado</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>Diagrama de visão de negocío</t>
+  </si>
+  <si>
+    <t>Diagrama para facilitar o entendimento da implantação do nosso projeto</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>Protótipo do site institucional</t>
+  </si>
+  <si>
+    <t>Criação do protótipo no nosso site institucional</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferramenta de gestão de projeto </t>
+  </si>
+  <si>
+    <t>Criar e organizar a ferramenta de gestão do projeto utilizando a plataforma (Trello)</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>Upar requisitos na ferramenta</t>
+  </si>
+  <si>
+    <t>Upar requisitos e atualizar na ferramenta de gestão de projeto (Trello)</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>Inserção e visualização dos registros no banco de dados</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
   </si>
   <si>
     <t>Sprint 2</t>
   </si>
   <si>
-    <t>Product Backlog</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
     <t>SP2A</t>
   </si>
   <si>
+    <t>Sistema de login</t>
+  </si>
+  <si>
+    <t>Não  Funcional</t>
+  </si>
+  <si>
     <t>Site Detalhes do Projeto</t>
   </si>
   <si>
     <t>Site com informações e detalhes mais específicos do projeto</t>
   </si>
   <si>
-    <t>R8</t>
+    <t>SP2C</t>
   </si>
   <si>
     <t>Site "Sobre nós"</t>
@@ -271,15 +479,27 @@
     <t>Site com informações sobre a empresa</t>
   </si>
   <si>
-    <t>SP2C</t>
-  </si>
-  <si>
     <t>Validação de Inputs</t>
   </si>
   <si>
     <t>Validação do que seráescrito nas abas de email e senha, limites como número de caracteres</t>
   </si>
   <si>
+    <t>Importante</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>Sprin 3</t>
+  </si>
+  <si>
     <t>Situações de Risco</t>
   </si>
   <si>
@@ -340,18 +560,18 @@
     <t>Erro no calculo do Prazo</t>
   </si>
   <si>
+    <t>Calcular mal os prazos para entrega de requisitos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rever os processos ao decorrer da semana </t>
+  </si>
+  <si>
     <t>Falta de Comunicação</t>
   </si>
   <si>
     <t>Má comunicação entre os integrantes do projeto</t>
   </si>
   <si>
-    <t>Calcular mal os prazos para entrega de requisitos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rever os processos ao decorrer da semana </t>
-  </si>
-  <si>
     <t>Reuniões diarias</t>
   </si>
   <si>
@@ -361,15 +581,15 @@
     <t>Mudanças nos requisitos do projeto</t>
   </si>
   <si>
+    <t xml:space="preserve">se preparar para possíveis  mudanças </t>
+  </si>
+  <si>
     <t xml:space="preserve">Incompetencia técnica </t>
   </si>
   <si>
     <t xml:space="preserve">falta de habilidade técnica </t>
   </si>
   <si>
-    <t xml:space="preserve">se preparar para possíveis  mudanças </t>
-  </si>
-  <si>
     <t>Pesquisa, procurar auxilio do grupo</t>
   </si>
   <si>
@@ -385,33 +605,72 @@
     <t>PLANO DE AÇÃO - PROJETO MUSHROOM</t>
   </si>
   <si>
+    <t>Scrum Master SP2A: Davi</t>
+  </si>
+  <si>
+    <t>Tarefa</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Prazo</t>
+  </si>
+  <si>
+    <t>Responsável</t>
+  </si>
+  <si>
+    <t>Anotações</t>
+  </si>
+  <si>
+    <t>Página inicial</t>
+  </si>
+  <si>
+    <t>Concluída</t>
+  </si>
+  <si>
+    <t>Arthur / Pedro</t>
+  </si>
+  <si>
+    <t>Fazer o CSS e o HTML da Pagina inicial</t>
+  </si>
+  <si>
+    <t>Cadastro</t>
+  </si>
+  <si>
+    <t>Em andamento</t>
+  </si>
+  <si>
+    <t>Leonardo/Daniel</t>
+  </si>
+  <si>
+    <t>Fazer o CSS e o HTML da Pagina de cadastro</t>
+  </si>
+  <si>
+    <t>Calculadora</t>
+  </si>
+  <si>
+    <t>Davi</t>
+  </si>
+  <si>
+    <t>Fazer o CSS e o HTML da Calculadora no site</t>
+  </si>
+  <si>
+    <t>Modelagem Lógica</t>
+  </si>
+  <si>
+    <t>Matteus</t>
+  </si>
+  <si>
+    <t>Fazer a modelagem logica de acordo com a regra de negocio da nossa empresa</t>
+  </si>
+  <si>
     <t>Scrum Master SP2B: Leonardo</t>
   </si>
   <si>
-    <t>Tarefa</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Prazo</t>
-  </si>
-  <si>
-    <t>Responsável</t>
-  </si>
-  <si>
-    <t>Anotações</t>
-  </si>
-  <si>
     <t>Site "O projeto"</t>
   </si>
   <si>
-    <t>Importante</t>
-  </si>
-  <si>
-    <t>Concluída</t>
-  </si>
-  <si>
     <t>Arthur</t>
   </si>
   <si>
@@ -419,12 +678,6 @@
   </si>
   <si>
     <t>Dashboard</t>
-  </si>
-  <si>
-    <t>Em andamento</t>
-  </si>
-  <si>
-    <t>Davi</t>
   </si>
   <si>
     <t>Fazer o CSS e o HTML da Dashboard
@@ -453,265 +706,37 @@
     <t>Re-estilizar e ajustar a lógica da calculadora</t>
   </si>
   <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>Conexão do Banco Usuario</t>
-  </si>
-  <si>
-    <t>Conectar o banco de dados do Usuario com o Site Estatico</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>Conexão do banco Sensor</t>
-  </si>
-  <si>
-    <t>Conectar o banco de dados do Usuario com os sensores</t>
-  </si>
-  <si>
-    <t>Tela de Cadastro</t>
-  </si>
-  <si>
-    <t>Tela para o site institucional onde o usuário vai poder fazer seu cadastro.</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>Banco de dados Sensor</t>
-  </si>
-  <si>
-    <t>Armazenar os dados do sensor</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>Documentação</t>
-  </si>
-  <si>
-    <t>Dar continuidade no projeto atualizando a documentação</t>
-  </si>
-  <si>
-    <t>Todas</t>
-  </si>
-  <si>
-    <t>Sistema de login</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>Header</t>
-  </si>
-  <si>
-    <t>Header/Navbar navegação</t>
-  </si>
-  <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>Footer</t>
-  </si>
-  <si>
-    <t>Infromações de contato</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>Detalhes Calculadora e Dashboard</t>
-  </si>
-  <si>
-    <t>detalhes de como se usar as funções</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>Não  Funcional</t>
-  </si>
-  <si>
-    <t>Sistema o qual será computado o cadastro</t>
-  </si>
-  <si>
-    <t>Projeto Exemplo - Burndown</t>
-  </si>
-  <si>
-    <t>Pontuação Total</t>
-  </si>
-  <si>
-    <t>Sprint-1 (A)</t>
-  </si>
-  <si>
-    <t>Sprint-2 (B)</t>
-  </si>
-  <si>
-    <t>Sprint-1 (B)</t>
-  </si>
-  <si>
-    <t>Sprint-1 (C)</t>
-  </si>
-  <si>
-    <t>Pontuação Atingida</t>
-  </si>
-  <si>
-    <t>Sprint-2 (D)</t>
-  </si>
-  <si>
-    <t>Sprint-1 (D)</t>
-  </si>
-  <si>
-    <t>Sprint-2 (A)</t>
-  </si>
-  <si>
-    <t>Sprint-2 (C)</t>
-  </si>
-  <si>
-    <t>Sprint-3 (A)</t>
-  </si>
-  <si>
-    <t>Sprint-3 (B)</t>
-  </si>
-  <si>
-    <t>Sprint-3 (C)</t>
-  </si>
-  <si>
-    <t>Sprint-3 (D)</t>
-  </si>
-  <si>
-    <t>Pontuação Final</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>Git Hub</t>
-  </si>
-  <si>
-    <t>Criar e configurar projeto no git hub</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>Contextualização do negocío</t>
-  </si>
-  <si>
-    <t>Pesquisar o coxtexto aonde é inserido o nosso negocío</t>
-  </si>
-  <si>
-    <t>A13</t>
-  </si>
-  <si>
-    <t>A14</t>
-  </si>
-  <si>
-    <t>Justificativa do Projeto</t>
-  </si>
-  <si>
-    <t>Justificar o porque o nosso projeto deve ser inserido no mercado</t>
-  </si>
-  <si>
-    <t>A15</t>
-  </si>
-  <si>
-    <t>Diagrama de visão de negocío</t>
-  </si>
-  <si>
-    <t>Diagrama para facilitar o entendimento da implantação do nosso projeto</t>
-  </si>
-  <si>
-    <t>Protótipo do site institucional</t>
-  </si>
-  <si>
-    <t>Criação do protótipo no nosso site institucional</t>
-  </si>
-  <si>
-    <t>A16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ferramenta de gestão de projeto </t>
-  </si>
-  <si>
-    <t>Criar e organizar a ferramenta de gestão do projeto utilizando a plataforma (Trello)</t>
-  </si>
-  <si>
-    <t>A17</t>
-  </si>
-  <si>
-    <t>Upar requisitos na ferramenta</t>
-  </si>
-  <si>
-    <t>Upar requisitos e atualizar na ferramenta de gestão de projeto (Trello)</t>
-  </si>
-  <si>
-    <t>A18</t>
-  </si>
-  <si>
-    <t>Inserção e visualização dos registros no banco de dados</t>
-  </si>
-  <si>
-    <t>Sprin 3</t>
-  </si>
-  <si>
-    <t>Diagrama de solução</t>
-  </si>
-  <si>
-    <t>DashBoard</t>
-  </si>
-  <si>
-    <t>Modulo Analytics</t>
-  </si>
-  <si>
-    <t>colcoar legendas no diagrama de solução</t>
-  </si>
-  <si>
-    <t>Tarefa Atrasada</t>
-  </si>
-  <si>
-    <t>Decidir quais graficos iram ser utilizados</t>
-  </si>
-  <si>
-    <t>Decidir os graficos que serão utilizados na nossa DashBoard</t>
-  </si>
-  <si>
-    <t>Daniel, Pedro, Arthur</t>
-  </si>
-  <si>
-    <t>Matteus</t>
-  </si>
-  <si>
-    <t>Davi, Leonardo, Matteus</t>
-  </si>
-  <si>
-    <t>Logica da calculadora</t>
-  </si>
-  <si>
-    <t>Leonardo, Matteus</t>
-  </si>
-  <si>
-    <t>Arrumar a logica da calculadora, tirar os bugs</t>
+    <t>Scrum Master SP2C: Pedro</t>
+  </si>
+  <si>
+    <t>Site institucional (Detalhes do projeto)</t>
+  </si>
+  <si>
+    <t>footer</t>
+  </si>
+  <si>
+    <t>Validação das inputs</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>“Projeto do site”</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Conectar ao Banco de dados com Arduino</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm"/>
   </numFmts>
@@ -846,10 +871,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Merriweather"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="40">
@@ -1328,7 +1353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1438,35 +1463,11 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="31" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="32" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="31" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1594,8 +1595,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1665,19 +1664,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="31" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="32" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="31" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1774,7 +1806,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1841,7 +1873,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1854,7 +1886,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1999,7 +2030,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="819904352"/>
@@ -2068,7 +2099,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="814723552"/>
@@ -2112,7 +2143,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2722,7 +2753,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3017,11 +3048,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC1444C-8C51-4391-AC27-3F562DB04093}">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K79" sqref="K79"/>
+    <sheetView topLeftCell="B33" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.95" customHeight="1"/>
@@ -3053,118 +3084,118 @@
   <sheetData>
     <row r="1" spans="1:24" ht="53.25" customHeight="1">
       <c r="A1" s="8"/>
-      <c r="B1" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="98"/>
-      <c r="L1" s="91" t="s">
-        <v>162</v>
-      </c>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
+      <c r="B1" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
+      <c r="L1" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
     </row>
     <row r="2" spans="1:24" ht="27.95" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="X2" s="73" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="77" t="s">
-        <v>163</v>
-      </c>
-      <c r="M2" s="79" t="s">
-        <v>164</v>
-      </c>
-      <c r="N2" s="79" t="s">
-        <v>166</v>
-      </c>
-      <c r="O2" s="79" t="s">
-        <v>167</v>
-      </c>
-      <c r="P2" s="79" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q2" s="80" t="s">
-        <v>171</v>
-      </c>
-      <c r="R2" s="80" t="s">
-        <v>165</v>
-      </c>
-      <c r="S2" s="80" t="s">
-        <v>172</v>
-      </c>
-      <c r="T2" s="80" t="s">
-        <v>169</v>
-      </c>
-      <c r="U2" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="V2" s="81" t="s">
-        <v>174</v>
-      </c>
-      <c r="W2" s="81" t="s">
-        <v>175</v>
-      </c>
-      <c r="X2" s="81" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="27.95" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G3" s="15">
         <v>8</v>
@@ -3173,68 +3204,68 @@
         <v>1</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="76" t="s">
-        <v>168</v>
-      </c>
-      <c r="L3" s="82">
+        <v>30</v>
+      </c>
+      <c r="K3" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="74">
         <f>SUM(G3:G33)</f>
         <v>180</v>
       </c>
-      <c r="M3" s="74">
+      <c r="M3" s="66">
         <v>17</v>
       </c>
-      <c r="N3" s="74">
+      <c r="N3" s="66">
         <v>16</v>
       </c>
-      <c r="O3" s="74">
+      <c r="O3" s="66">
         <v>17</v>
       </c>
-      <c r="P3" s="74">
+      <c r="P3" s="66">
         <v>18</v>
       </c>
-      <c r="Q3" s="74">
+      <c r="Q3" s="66">
         <v>17</v>
       </c>
-      <c r="R3" s="74">
+      <c r="R3" s="66">
         <v>15</v>
       </c>
-      <c r="S3" s="74">
+      <c r="S3" s="66">
         <v>16</v>
       </c>
-      <c r="T3" s="74">
+      <c r="T3" s="66">
         <v>17</v>
       </c>
-      <c r="U3" s="74">
+      <c r="U3" s="66">
         <v>16</v>
       </c>
-      <c r="V3" s="74">
+      <c r="V3" s="66">
         <v>15</v>
       </c>
-      <c r="W3" s="74">
+      <c r="W3" s="66">
         <v>16</v>
       </c>
-      <c r="X3" s="74"/>
+      <c r="X3" s="66"/>
     </row>
     <row r="4" spans="1:24" ht="27.95" customHeight="1">
       <c r="A4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="F4" s="15" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G4" s="15">
         <v>8</v>
@@ -3243,94 +3274,94 @@
         <v>6</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" s="83" t="s">
-        <v>177</v>
-      </c>
-      <c r="L4" s="82">
+        <v>30</v>
+      </c>
+      <c r="K4" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="74">
         <f>SUM(G3:G33)</f>
         <v>180</v>
       </c>
-      <c r="M4" s="75">
+      <c r="M4" s="67">
         <f>IF(SUM(M3)&gt;0,L4-M3,
 )</f>
         <v>163</v>
       </c>
-      <c r="N4" s="75" cm="1">
-        <f t="array" ref="N4">IF(SUM(N3)&gt;0,M4-N3,n
+      <c r="N4" s="67" cm="1">
+        <f t="array" ref="N4">IF(SUM(N3)&gt;0,M4-N3,_xludf.n
 )</f>
         <v>147</v>
       </c>
-      <c r="O4" s="75" cm="1">
-        <f t="array" ref="O4">IF(SUM(O3)&gt;0,N4-O3,n
+      <c r="O4" s="67" cm="1">
+        <f t="array" ref="O4">IF(SUM(O3)&gt;0,N4-O3,_xludf.n
 )</f>
         <v>130</v>
       </c>
-      <c r="P4" s="75" cm="1">
-        <f t="array" ref="P4">IF(SUM(P3)&gt;0,O4-P3,n
+      <c r="P4" s="67" cm="1">
+        <f t="array" ref="P4">IF(SUM(P3)&gt;0,O4-P3,_xludf.n
 )</f>
         <v>112</v>
       </c>
-      <c r="Q4" s="75" cm="1">
-        <f t="array" ref="Q4">IF(SUM(Q3)&gt;0,P4-Q3,n
+      <c r="Q4" s="67" cm="1">
+        <f t="array" ref="Q4">IF(SUM(Q3)&gt;0,P4-Q3,_xludf.n
 )</f>
         <v>95</v>
       </c>
-      <c r="R4" s="75" cm="1">
-        <f t="array" ref="R4">IF(SUM(R3)&gt;0,Q4-R3,n
+      <c r="R4" s="67" cm="1">
+        <f t="array" ref="R4">IF(SUM(R3)&gt;0,Q4-R3,_xludf.n
 )</f>
         <v>80</v>
       </c>
-      <c r="S4" s="75" cm="1">
-        <f t="array" ref="S4">IF(SUM(S3)&gt;0,R4-S3,n
+      <c r="S4" s="67" cm="1">
+        <f t="array" ref="S4">IF(SUM(S3)&gt;0,R4-S3,_xludf.n
 )</f>
         <v>64</v>
       </c>
-      <c r="T4" s="75" cm="1">
-        <f t="array" ref="T4">IF(SUM(T3)&gt;0,S4-T3,n
+      <c r="T4" s="67" cm="1">
+        <f t="array" ref="T4">IF(SUM(T3)&gt;0,S4-T3,_xludf.n
 )</f>
         <v>47</v>
       </c>
-      <c r="U4" s="75" cm="1">
-        <f t="array" ref="U4">IF(SUM(U3)&gt;0,T4-U3,n
+      <c r="U4" s="67" cm="1">
+        <f t="array" ref="U4">IF(SUM(U3)&gt;0,T4-U3,_xludf.n
 )</f>
         <v>31</v>
       </c>
-      <c r="V4" s="75" cm="1">
-        <f t="array" ref="V4">IF(SUM(V3)&gt;0,U4-V3,n
+      <c r="V4" s="67" cm="1">
+        <f t="array" ref="V4">IF(SUM(V3)&gt;0,U4-V3,_xludf.n
 )</f>
         <v>16</v>
       </c>
-      <c r="W4" s="75" cm="1">
-        <f t="array" ref="W4">IF(SUM(W3)&gt;0,V4-W3,n
+      <c r="W4" s="67" cm="1">
+        <f t="array" ref="W4">IF(SUM(W3)&gt;0,V4-W3,_xludf.n
 )</f>
         <v>0</v>
       </c>
-      <c r="X4" s="75" t="e" cm="1">
-        <f t="array" ref="X4">IF(SUM(X3)&gt;0,W4-X3,n
+      <c r="X4" s="67" t="e" cm="1">
+        <f t="array" ref="X4">IF(SUM(X3)&gt;0,W4-X3,_xludf.n
 )</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="27.95" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G5" s="16">
         <v>5</v>
@@ -3339,40 +3370,40 @@
         <v>9</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
-      <c r="X5" s="78"/>
+        <v>40</v>
+      </c>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="70"/>
     </row>
     <row r="6" spans="1:24" ht="27.95" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="18">
         <v>13</v>
@@ -3381,67 +3412,67 @@
         <v>8</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="27.95" customHeight="1">
-      <c r="A7" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="101" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="101" t="s">
+      <c r="A7" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="90">
         <v>8</v>
       </c>
-      <c r="D7" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="103" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="100" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="100">
-        <v>8</v>
-      </c>
-      <c r="H7" s="99">
+      <c r="H7" s="89">
         <v>4</v>
       </c>
-      <c r="I7" s="106" t="s">
-        <v>59</v>
+      <c r="I7" s="96" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="27.95" customHeight="1">
-      <c r="A8" s="105"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="107"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="97"/>
     </row>
     <row r="9" spans="1:24" ht="27.95" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G9" s="16">
         <v>5</v>
@@ -3450,27 +3481,27 @@
         <v>3</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="27.95" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>48</v>
       </c>
       <c r="G10" s="15">
         <v>8</v>
@@ -3479,30 +3510,30 @@
         <v>5</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>178</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="27.95" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G11" s="17">
         <v>3</v>
@@ -3511,27 +3542,27 @@
         <v>10</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="27.95" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G12" s="16">
         <v>5</v>
@@ -3540,27 +3571,27 @@
         <v>12</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="27.95" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="18">
         <v>13</v>
@@ -3569,27 +3600,27 @@
         <v>7</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="27.95" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G14" s="16">
         <v>5</v>
@@ -3598,27 +3629,27 @@
         <v>13</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="27.95" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G15" s="17">
         <v>3</v>
@@ -3627,27 +3658,27 @@
         <v>14</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="27.95" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G16" s="17">
         <v>3</v>
@@ -3656,27 +3687,27 @@
         <v>11</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="27.95" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>55</v>
+        <v>78</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>79</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G17" s="15">
         <v>8</v>
@@ -3685,27 +3716,27 @@
         <v>2</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="26.25" customHeight="1">
       <c r="A18" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="49" t="s">
-        <v>7</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G18" s="15">
         <v>8</v>
@@ -3714,85 +3745,85 @@
         <v>15</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="27.95" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="49" t="s">
-        <v>7</v>
+        <v>85</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>44</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G19" s="16">
         <v>5</v>
       </c>
       <c r="H19" s="19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="27.95" customHeight="1">
       <c r="A20" s="10" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="49" t="s">
-        <v>7</v>
+        <v>88</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>44</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G20" s="16">
         <v>5</v>
       </c>
       <c r="H20" s="19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="27.95" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="49" t="s">
-        <v>7</v>
+        <v>91</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>44</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G21" s="16">
         <v>5</v>
@@ -3801,389 +3832,373 @@
         <v>18</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="27.95" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="49" t="s">
-        <v>7</v>
+        <v>94</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>44</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G22" s="15">
         <v>8</v>
       </c>
       <c r="H22" s="19">
-        <v>27</v>
-      </c>
-      <c r="I22" s="50" t="s">
-        <v>144</v>
+        <v>19</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="27.95" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23" s="49" t="s">
-        <v>7</v>
+        <v>98</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>44</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G23" s="16">
         <v>5</v>
       </c>
       <c r="H23" s="19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="27.95" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24" s="49" t="s">
-        <v>7</v>
+        <v>101</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>44</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="G24" s="16">
         <v>5</v>
       </c>
       <c r="H24" s="19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="27.95" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="49" t="s">
-        <v>7</v>
+        <v>105</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>44</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G25" s="16">
         <v>5</v>
       </c>
       <c r="H25" s="19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="27.95" customHeight="1">
-      <c r="A26" s="84" t="s">
-        <v>181</v>
+      <c r="A26" s="76" t="s">
+        <v>106</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="85">
+        <v>45</v>
+      </c>
+      <c r="F26" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="77">
         <v>3</v>
       </c>
-      <c r="H26" s="19">
-        <v>28</v>
-      </c>
+      <c r="H26" s="19"/>
       <c r="I26" s="21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="27.95" customHeight="1">
       <c r="A27" s="11" t="s">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>183</v>
+        <v>111</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G27" s="16">
         <v>5</v>
       </c>
-      <c r="H27" s="19">
-        <v>22</v>
-      </c>
+      <c r="H27" s="19"/>
       <c r="I27" s="21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="27.95" customHeight="1">
       <c r="A28" s="11" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>187</v>
+        <v>114</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G28" s="16">
         <v>5</v>
       </c>
-      <c r="H28" s="19">
-        <v>29</v>
-      </c>
+      <c r="H28" s="19"/>
       <c r="I28" s="21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="27.95" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>188</v>
+        <v>115</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>190</v>
+        <v>117</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="85">
+        <v>45</v>
+      </c>
+      <c r="F29" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="77">
         <v>3</v>
       </c>
-      <c r="H29" s="19">
-        <v>23</v>
-      </c>
+      <c r="H29" s="19"/>
       <c r="I29" s="21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="27.95" customHeight="1">
       <c r="A30" s="10" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G30" s="15">
         <v>8</v>
       </c>
-      <c r="H30" s="19">
-        <v>24</v>
-      </c>
+      <c r="H30" s="19"/>
       <c r="I30" s="21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="27.95" customHeight="1">
       <c r="A31" s="11" t="s">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>195</v>
+        <v>123</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="88">
+        <v>39</v>
+      </c>
+      <c r="G31" s="80">
         <v>5</v>
       </c>
-      <c r="H31" s="19">
-        <v>25</v>
-      </c>
+      <c r="H31" s="19"/>
       <c r="I31" s="21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="27.95" customHeight="1">
       <c r="A32" s="11" t="s">
-        <v>196</v>
+        <v>124</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G32" s="16">
         <v>5</v>
       </c>
-      <c r="H32" s="19">
-        <v>30</v>
-      </c>
+      <c r="H32" s="19"/>
       <c r="I32" s="21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="24" customHeight="1">
       <c r="A33" s="11" t="s">
-        <v>199</v>
+        <v>127</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G33" s="16">
         <v>5</v>
       </c>
-      <c r="H33" s="19">
-        <v>26</v>
-      </c>
+      <c r="H33" s="19"/>
       <c r="I33" s="21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="30.75" customHeight="1"/>
     <row r="35" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A35" s="93" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="93"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93"/>
+      <c r="A35" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="83"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
     </row>
     <row r="36" spans="1:10" ht="27.95" customHeight="1">
       <c r="A36" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G36" s="16">
         <v>5</v>
@@ -4192,27 +4207,27 @@
         <v>9</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="27.95" customHeight="1">
       <c r="A37" s="11" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G37" s="16">
         <v>5</v>
@@ -4221,56 +4236,56 @@
         <v>3</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="27.95" customHeight="1">
       <c r="A38" s="11" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G38" s="16">
         <v>5</v>
       </c>
       <c r="H38" s="19">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I38" s="21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="27.95" customHeight="1">
       <c r="A39" s="11" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="120" t="s">
-        <v>55</v>
+        <v>78</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>79</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G39" s="15">
         <v>8</v>
@@ -4279,854 +4294,844 @@
         <v>2</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="27.75" customHeight="1">
       <c r="A40" s="11" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G40" s="17">
         <v>13</v>
       </c>
-      <c r="H40" s="19">
-        <v>7</v>
-      </c>
+      <c r="H40" s="19"/>
       <c r="I40" s="21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="45.75" hidden="1" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>183</v>
+        <v>111</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G41" s="9">
         <v>5</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="45.75" customHeight="1">
       <c r="A42" s="11" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>187</v>
+        <v>114</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="G42" s="85">
+        <v>45</v>
+      </c>
+      <c r="F42" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="77">
         <v>5</v>
       </c>
-      <c r="H42" s="19">
-        <v>3</v>
-      </c>
+      <c r="H42" s="19"/>
       <c r="I42" s="21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="27.95" customHeight="1">
       <c r="A43" s="11" t="s">
-        <v>188</v>
+        <v>115</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>190</v>
+        <v>117</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G43" s="17">
         <v>3</v>
       </c>
-      <c r="H43" s="19">
-        <v>4</v>
-      </c>
+      <c r="H43" s="19"/>
       <c r="I43" s="21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="27.95" customHeight="1">
       <c r="A44" s="10" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G44" s="15">
         <v>8</v>
       </c>
-      <c r="H44" s="19">
-        <v>2</v>
-      </c>
+      <c r="H44" s="19"/>
       <c r="I44" s="21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="27.95" customHeight="1">
       <c r="A45" s="11" t="s">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>195</v>
+        <v>123</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F45" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="G45" s="87">
+        <v>45</v>
+      </c>
+      <c r="F45" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="79">
         <v>5</v>
       </c>
-      <c r="H45" s="19">
-        <v>5</v>
-      </c>
+      <c r="H45" s="19"/>
       <c r="I45" s="21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="27.95" customHeight="1">
       <c r="A46" s="11" t="s">
-        <v>196</v>
+        <v>124</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F46" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="G46" s="86">
+        <v>45</v>
+      </c>
+      <c r="F46" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="78">
         <v>5</v>
       </c>
-      <c r="H46" s="19">
-        <v>6</v>
-      </c>
+      <c r="H46" s="19"/>
       <c r="I46" s="21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="27.95" customHeight="1">
       <c r="A47" s="11" t="s">
-        <v>199</v>
+        <v>127</v>
       </c>
       <c r="B47" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="G47" s="78">
+        <v>5</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="27.95" customHeight="1">
+      <c r="J48" s="39"/>
+    </row>
+    <row r="49" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A49" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="83"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="51"/>
+    </row>
+    <row r="50" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A50" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" s="44">
+        <v>8</v>
+      </c>
+      <c r="H50" s="45">
+        <v>2</v>
+      </c>
+      <c r="I50" s="46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A51" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="44">
+        <v>8</v>
+      </c>
+      <c r="H51" s="45">
+        <v>3</v>
+      </c>
+      <c r="I51" s="46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A52" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F52" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="G52" s="48">
+        <v>13</v>
+      </c>
+      <c r="H52" s="45">
+        <v>8</v>
+      </c>
+      <c r="I52" s="46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A53" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" s="60">
+        <v>8</v>
+      </c>
+      <c r="H53" s="58">
+        <v>7</v>
+      </c>
+      <c r="I53" s="56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A54" s="65"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="57"/>
+    </row>
+    <row r="55" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A55" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F47" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="G47" s="86">
+      <c r="C55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="44">
+        <v>8</v>
+      </c>
+      <c r="H55" s="45">
         <v>5</v>
       </c>
-      <c r="H47" s="19">
+      <c r="I55" s="46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A56" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="G56" s="49">
+        <v>3</v>
+      </c>
+      <c r="H56" s="45">
+        <v>11</v>
+      </c>
+      <c r="I56" s="46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A57" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="G57" s="48">
+        <v>13</v>
+      </c>
+      <c r="H57" s="45">
+        <v>6</v>
+      </c>
+      <c r="I57" s="46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A58" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" s="44">
+        <v>8</v>
+      </c>
+      <c r="H58" s="45">
+        <v>10</v>
+      </c>
+      <c r="I58" s="46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A59" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="44">
+        <v>8</v>
+      </c>
+      <c r="H59" s="45">
+        <v>9</v>
+      </c>
+      <c r="I59" s="46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A60" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G60" s="50">
+        <v>3</v>
+      </c>
+      <c r="H60" s="45">
+        <v>7</v>
+      </c>
+      <c r="I60" s="46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A61" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="G61" s="49">
+        <v>3</v>
+      </c>
+      <c r="H61" s="45">
+        <v>13</v>
+      </c>
+      <c r="I61" s="46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A62" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="G62" s="49">
+        <v>3</v>
+      </c>
+      <c r="H62" s="45">
+        <v>14</v>
+      </c>
+      <c r="I62" s="46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A63" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G63" s="50">
+        <v>5</v>
+      </c>
+      <c r="H63" s="45">
+        <v>15</v>
+      </c>
+      <c r="I63" s="46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="27.95" customHeight="1">
+      <c r="A64" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G64" s="50">
+        <v>5</v>
+      </c>
+      <c r="H64" s="45">
+        <v>4</v>
+      </c>
+      <c r="I64" s="46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="27.95" customHeight="1">
+      <c r="A65" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F65" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="44">
+        <v>8</v>
+      </c>
+      <c r="H65" s="45">
         <v>1</v>
       </c>
-      <c r="I47" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="27.95" customHeight="1">
-      <c r="J48" s="47"/>
-    </row>
-    <row r="49" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A49" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="93"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="93"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="93"/>
-      <c r="H49" s="93"/>
-      <c r="I49" s="94"/>
-      <c r="J49" s="59"/>
-    </row>
-    <row r="50" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A50" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F50" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="G50" s="52">
-        <v>8</v>
-      </c>
-      <c r="H50" s="53">
-        <v>2</v>
-      </c>
-      <c r="I50" s="54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A51" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="I65" s="46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="27.95" customHeight="1">
+      <c r="A66" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G66" s="50">
+        <v>5</v>
+      </c>
+      <c r="H66" s="45">
+        <v>16</v>
+      </c>
+      <c r="I66" s="46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="27.95" customHeight="1">
+      <c r="A67" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F67" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="G67" s="50">
+        <v>5</v>
+      </c>
+      <c r="H67" s="45">
+        <v>17</v>
+      </c>
+      <c r="I67" s="46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="27.95" customHeight="1">
+      <c r="A68" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G68" s="50">
+        <v>5</v>
+      </c>
+      <c r="H68" s="45">
+        <v>18</v>
+      </c>
+      <c r="I68" s="46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="27.95" customHeight="1">
+      <c r="A71" s="85" t="s">
         <v>145</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="G51" s="52">
-        <v>8</v>
-      </c>
-      <c r="H51" s="53">
-        <v>3</v>
-      </c>
-      <c r="I51" s="54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A52" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F52" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="G52" s="56">
-        <v>13</v>
-      </c>
-      <c r="H52" s="53">
-        <v>8</v>
-      </c>
-      <c r="I52" s="54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A53" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="E53" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="F53" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="G53" s="68">
-        <v>8</v>
-      </c>
-      <c r="H53" s="66">
-        <v>7</v>
-      </c>
-      <c r="I53" s="64" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A54" s="73"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="65"/>
-    </row>
-    <row r="55" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A55" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F55" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="G55" s="52">
-        <v>8</v>
-      </c>
-      <c r="H55" s="53">
-        <v>5</v>
-      </c>
-      <c r="I55" s="54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A56" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F56" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="G56" s="57">
-        <v>3</v>
-      </c>
-      <c r="H56" s="53">
-        <v>11</v>
-      </c>
-      <c r="I56" s="54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A57" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F57" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="G57" s="56">
-        <v>13</v>
-      </c>
-      <c r="H57" s="53">
-        <v>6</v>
-      </c>
-      <c r="I57" s="54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A58" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D58" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F58" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="G58" s="52">
-        <v>8</v>
-      </c>
-      <c r="H58" s="53">
-        <v>10</v>
-      </c>
-      <c r="I58" s="54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A59" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D59" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F59" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="G59" s="52">
-        <v>8</v>
-      </c>
-      <c r="H59" s="53">
-        <v>9</v>
-      </c>
-      <c r="I59" s="54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A60" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D60" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F60" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="G60" s="58">
-        <v>3</v>
-      </c>
-      <c r="H60" s="53">
-        <v>7</v>
-      </c>
-      <c r="I60" s="54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A61" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F61" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="G61" s="57">
-        <v>3</v>
-      </c>
-      <c r="H61" s="53">
-        <v>13</v>
-      </c>
-      <c r="I61" s="54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A62" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F62" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="G62" s="57">
-        <v>3</v>
-      </c>
-      <c r="H62" s="53">
-        <v>14</v>
-      </c>
-      <c r="I62" s="54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A63" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="D63" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F63" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="G63" s="58">
-        <v>5</v>
-      </c>
-      <c r="H63" s="53">
-        <v>15</v>
-      </c>
-      <c r="I63" s="54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A64" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D64" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="G64" s="58">
-        <v>5</v>
-      </c>
-      <c r="H64" s="53">
-        <v>4</v>
-      </c>
-      <c r="I64" s="54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="27.95" customHeight="1">
-      <c r="A65" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="D65" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F65" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="G65" s="52">
-        <v>8</v>
-      </c>
-      <c r="H65" s="53">
-        <v>1</v>
-      </c>
-      <c r="I65" s="54" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="27.95" customHeight="1">
-      <c r="A66" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D66" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F66" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="G66" s="58">
-        <v>5</v>
-      </c>
-      <c r="H66" s="53">
-        <v>16</v>
-      </c>
-      <c r="I66" s="54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="27.95" customHeight="1">
-      <c r="A67" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D67" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F67" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="G67" s="58">
-        <v>5</v>
-      </c>
-      <c r="H67" s="53">
-        <v>17</v>
-      </c>
-      <c r="I67" s="54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="27.95" customHeight="1">
-      <c r="A68" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D68" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F68" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="G68" s="58">
-        <v>5</v>
-      </c>
-      <c r="H68" s="53">
-        <v>18</v>
-      </c>
-      <c r="I68" s="54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="27.95" customHeight="1">
-      <c r="A71" s="95" t="s">
-        <v>201</v>
-      </c>
-      <c r="B71" s="95"/>
-      <c r="C71" s="95"/>
-      <c r="D71" s="95"/>
-      <c r="E71" s="95"/>
-      <c r="F71" s="95"/>
-      <c r="G71" s="95"/>
-      <c r="H71" s="95"/>
-      <c r="I71" s="95"/>
+      <c r="B71" s="85"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="85"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="85"/>
+      <c r="H71" s="85"/>
+      <c r="I71" s="85"/>
     </row>
     <row r="72" spans="1:9" ht="27.95" customHeight="1">
       <c r="A72" s="11" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G72" s="16">
         <v>5</v>
       </c>
-      <c r="H72" s="19"/>
+      <c r="H72" s="19">
+        <v>13</v>
+      </c>
       <c r="I72" s="22" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="27.95" customHeight="1">
       <c r="A73" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C73" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="D73" s="49" t="s">
-        <v>7</v>
-      </c>
       <c r="E73" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G73" s="15">
         <v>8</v>
       </c>
-      <c r="H73" s="19"/>
+      <c r="H73" s="19">
+        <v>15</v>
+      </c>
       <c r="I73" s="22" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -5152,7 +5157,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{4D5150BD-60FC-42EC-8538-A0F404D0BC2C}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5175,7 +5180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5194,71 +5199,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="108" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
+      <c r="A1" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="110"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="110"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="112"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="26" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5266,7 +5271,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="C6" s="30">
         <v>2</v>
@@ -5278,13 +5283,13 @@
         <v>2</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5292,7 +5297,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="C7" s="30">
         <v>3</v>
@@ -5304,13 +5309,13 @@
         <v>3</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5318,7 +5323,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="C8" s="30">
         <v>2</v>
@@ -5330,13 +5335,13 @@
         <v>4</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5344,7 +5349,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="C9" s="30">
         <v>1</v>
@@ -5356,13 +5361,13 @@
         <v>4</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="11.25" customHeight="1">
@@ -5370,7 +5375,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="C10" s="9">
         <v>2</v>
@@ -5382,13 +5387,13 @@
         <v>2</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5396,7 +5401,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="C11" s="30">
         <v>1</v>
@@ -5408,13 +5413,13 @@
         <v>3</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5422,7 +5427,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="C12" s="30">
         <v>1</v>
@@ -5434,13 +5439,13 @@
         <v>1</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30">
@@ -5448,7 +5453,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="C13" s="30">
         <v>2</v>
@@ -5460,13 +5465,13 @@
         <v>2</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" ht="11.25" customHeight="1"/>
@@ -5479,261 +5484,426 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" customWidth="1"/>
-    <col min="6" max="6" width="59.5703125" customWidth="1"/>
-    <col min="7" max="7" width="36.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="116" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="116" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="116" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="116" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="116" customWidth="1"/>
+    <col min="6" max="6" width="59.5703125" style="116" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" style="116" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="116"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="60">
-      <c r="A1" s="114" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="116"/>
+    <row r="1" spans="1:7" ht="62.25" customHeight="1">
+      <c r="A1" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="117" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
+      <c r="A2" s="104" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>113</v>
+      <c r="A3" s="105" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="105" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="105" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="105" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="105" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="48" customHeight="1">
-      <c r="A4" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="39">
+      <c r="A4" s="106" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="106" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="107">
+        <v>45201</v>
+      </c>
+      <c r="E4" s="106" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="106" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="106"/>
+    </row>
+    <row r="5" spans="1:7" ht="48" customHeight="1">
+      <c r="A5" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="108">
+        <v>45201</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="G5" s="37"/>
+    </row>
+    <row r="6" spans="1:7" ht="48" customHeight="1">
+      <c r="A6" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="109">
+        <v>45201</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="38"/>
+    </row>
+    <row r="7" spans="1:7" ht="50.25" customHeight="1">
+      <c r="A7" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="108">
+        <v>45201</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" s="37"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="104" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="112"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="105" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="105" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="105" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" s="105" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="105" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.25">
+      <c r="A10" s="106" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="106" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="107">
         <v>45208</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" s="38"/>
-    </row>
-    <row r="5" spans="1:7" ht="48" customHeight="1">
-      <c r="A5" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="41">
+      <c r="E10" s="106" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" s="106" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10" s="106"/>
+    </row>
+    <row r="11" spans="1:7" ht="33">
+      <c r="A11" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="108">
         <v>45208</v>
       </c>
-      <c r="E5" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="48" customHeight="1">
-      <c r="A6" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="44">
+      <c r="E11" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="33">
+      <c r="A12" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="109">
         <v>45208</v>
       </c>
-      <c r="E6" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="G6" s="43"/>
-    </row>
-    <row r="7" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A7" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="41">
+      <c r="E12" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="G12" s="38"/>
+    </row>
+    <row r="13" spans="1:7" ht="17.25">
+      <c r="A13" s="110" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="108">
         <v>45208</v>
       </c>
-      <c r="E7" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="89">
-        <v>45219</v>
-      </c>
-      <c r="E9" t="s">
-        <v>210</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E13" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="37"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="112"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="105" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="105" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="105" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="105" t="s">
+        <v>185</v>
+      </c>
+      <c r="F15" s="105" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="105" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="33">
+      <c r="A16" s="106" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="107" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="107">
+        <v>45212</v>
+      </c>
+      <c r="E16" s="106" t="s">
+        <v>203</v>
+      </c>
+      <c r="G16" s="106"/>
+    </row>
+    <row r="17" spans="1:7" ht="17.25">
+      <c r="A17" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="108" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="108">
+        <v>45212</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:7" ht="17.25">
+      <c r="A18" s="38" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="89">
-        <v>45219</v>
-      </c>
-      <c r="E10" t="s">
-        <v>211</v>
-      </c>
-      <c r="G10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>204</v>
-      </c>
-      <c r="B11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="89">
-        <v>45219</v>
-      </c>
-      <c r="E11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
+      <c r="B18" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="107" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="109">
+        <v>45212</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="119"/>
+      <c r="G18" s="106" t="s">
         <v>207</v>
       </c>
-      <c r="B12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="89">
-        <v>45219</v>
-      </c>
-      <c r="E12" t="s">
-        <v>211</v>
-      </c>
-      <c r="F12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="89">
-        <v>45219</v>
-      </c>
-      <c r="E13" t="s">
-        <v>213</v>
-      </c>
-      <c r="F13" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5">
-      <c r="E20" s="90"/>
+    </row>
+    <row r="19" spans="1:7" ht="17.25">
+      <c r="A19" s="110" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="108" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="108">
+        <v>45212</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="G19" s="37"/>
+    </row>
+    <row r="20" spans="1:7" ht="17.25">
+      <c r="A20" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="107" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="109">
+        <v>45212</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="G20" s="106"/>
+    </row>
+    <row r="21" spans="1:7" ht="33">
+      <c r="A21" s="110" t="s">
+        <v>221</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="108" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="108">
+        <v>45212</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="G21" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A14:G14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentação/backLogs e Planos de ação/planoDeAção BackLog PlanilhaDeRiscos.xlsx
+++ b/Documentação/backLogs e Planos de ação/planoDeAção BackLog PlanilhaDeRiscos.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27016"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pehso\Downloads\git clone(2)\MushRoomCompany\Documentação\backLogs e Planos de ação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Desktop\Material Sptech\Projetos\MushRoomCompany\Documentação\backLogs e Planos de ação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BE6C2BB-149A-4F62-B9D0-3121BDBA4FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BackLogs" sheetId="4" r:id="rId1"/>
     <sheet name="Planilha de Riscos" sheetId="2" r:id="rId2"/>
     <sheet name="Plano de Ação" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,14 +37,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="235">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -721,9 +720,6 @@
     <t>Daniel</t>
   </si>
   <si>
-    <t>“Projeto do site”</t>
-  </si>
-  <si>
     <t>Pedro</t>
   </si>
   <si>
@@ -731,16 +727,55 @@
   </si>
   <si>
     <t>Leonardo</t>
+  </si>
+  <si>
+    <t>Criar o CSS e o HTML do Detalhes do projeto</t>
+  </si>
+  <si>
+    <t>Criar o css e html do footer e implementar no site</t>
+  </si>
+  <si>
+    <t>Fazer o CSS e o HTML da Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar o Script de validação das inputs e e mensagem de erro </t>
+  </si>
+  <si>
+    <t>Tela Sobre nós</t>
+  </si>
+  <si>
+    <t>Fazer o CSS e o HTML da sobre nós</t>
+  </si>
+  <si>
+    <t>Modificar o codigo da API para que ele interaja com o banco de dados</t>
+  </si>
+  <si>
+    <t>Scrum Master SP2D: Matteus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definir os graficos </t>
+  </si>
+  <si>
+    <t>Diagrama de solução</t>
+  </si>
+  <si>
+    <t>Escrever legenda no Diagrama de solução</t>
+  </si>
+  <si>
+    <t>Arrumar logica da calculadora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulo analytics </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -869,12 +904,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Merriweather"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="40">
@@ -1113,7 +1142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1349,11 +1378,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1595,6 +1639,30 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="31" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="32" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="31" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1664,26 +1732,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="31" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="32" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="31" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1691,25 +1756,12 @@
     <xf numFmtId="0" fontId="7" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="31" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1806,7 +1858,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1873,7 +1925,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2030,7 +2082,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="819904352"/>
@@ -2099,7 +2151,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="814723552"/>
@@ -2143,7 +2195,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3048,7 +3100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC1444C-8C51-4391-AC27-3F562DB04093}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X73"/>
   <sheetViews>
     <sheetView topLeftCell="B33" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -3084,31 +3136,31 @@
   <sheetData>
     <row r="1" spans="1:24" ht="53.25" customHeight="1">
       <c r="A1" s="8"/>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="88"/>
-      <c r="L1" s="81" t="s">
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="96"/>
+      <c r="L1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
     </row>
     <row r="2" spans="1:24" ht="27.95" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -3289,57 +3341,57 @@
         <v>163</v>
       </c>
       <c r="N4" s="67" cm="1">
-        <f t="array" ref="N4">IF(SUM(N3)&gt;0,M4-N3,_xludf.n
+        <f t="array" ref="N4">IF(SUM(N3)&gt;0,M4-N3,n
 )</f>
         <v>147</v>
       </c>
       <c r="O4" s="67" cm="1">
-        <f t="array" ref="O4">IF(SUM(O3)&gt;0,N4-O3,_xludf.n
+        <f t="array" ref="O4">IF(SUM(O3)&gt;0,N4-O3,n
 )</f>
         <v>130</v>
       </c>
       <c r="P4" s="67" cm="1">
-        <f t="array" ref="P4">IF(SUM(P3)&gt;0,O4-P3,_xludf.n
+        <f t="array" ref="P4">IF(SUM(P3)&gt;0,O4-P3,n
 )</f>
         <v>112</v>
       </c>
       <c r="Q4" s="67" cm="1">
-        <f t="array" ref="Q4">IF(SUM(Q3)&gt;0,P4-Q3,_xludf.n
+        <f t="array" ref="Q4">IF(SUM(Q3)&gt;0,P4-Q3,n
 )</f>
         <v>95</v>
       </c>
       <c r="R4" s="67" cm="1">
-        <f t="array" ref="R4">IF(SUM(R3)&gt;0,Q4-R3,_xludf.n
+        <f t="array" ref="R4">IF(SUM(R3)&gt;0,Q4-R3,n
 )</f>
         <v>80</v>
       </c>
       <c r="S4" s="67" cm="1">
-        <f t="array" ref="S4">IF(SUM(S3)&gt;0,R4-S3,_xludf.n
+        <f t="array" ref="S4">IF(SUM(S3)&gt;0,R4-S3,n
 )</f>
         <v>64</v>
       </c>
       <c r="T4" s="67" cm="1">
-        <f t="array" ref="T4">IF(SUM(T3)&gt;0,S4-T3,_xludf.n
+        <f t="array" ref="T4">IF(SUM(T3)&gt;0,S4-T3,n
 )</f>
         <v>47</v>
       </c>
       <c r="U4" s="67" cm="1">
-        <f t="array" ref="U4">IF(SUM(U3)&gt;0,T4-U3,_xludf.n
+        <f t="array" ref="U4">IF(SUM(U3)&gt;0,T4-U3,n
 )</f>
         <v>31</v>
       </c>
       <c r="V4" s="67" cm="1">
-        <f t="array" ref="V4">IF(SUM(V3)&gt;0,U4-V3,_xludf.n
+        <f t="array" ref="V4">IF(SUM(V3)&gt;0,U4-V3,n
 )</f>
         <v>16</v>
       </c>
       <c r="W4" s="67" cm="1">
-        <f t="array" ref="W4">IF(SUM(W3)&gt;0,V4-W3,_xludf.n
+        <f t="array" ref="W4">IF(SUM(W3)&gt;0,V4-W3,n
 )</f>
         <v>0</v>
       </c>
       <c r="X4" s="67" t="e" cm="1">
-        <f t="array" ref="X4">IF(SUM(X3)&gt;0,W4-X3,_xludf.n
+        <f t="array" ref="X4">IF(SUM(X3)&gt;0,W4-X3,n
 )</f>
         <v>#NAME?</v>
       </c>
@@ -3416,44 +3468,44 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="27.95" customHeight="1">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="93" t="s">
+      <c r="E7" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="90">
+      <c r="G7" s="98">
         <v>8</v>
       </c>
-      <c r="H7" s="89">
+      <c r="H7" s="97">
         <v>4</v>
       </c>
-      <c r="I7" s="96" t="s">
+      <c r="I7" s="104" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="27.95" customHeight="1">
-      <c r="A8" s="95"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="97"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="105"/>
     </row>
     <row r="9" spans="1:24" ht="27.95" customHeight="1">
       <c r="A9" s="11" t="s">
@@ -4169,17 +4221,17 @@
     </row>
     <row r="34" spans="1:10" ht="30.75" customHeight="1"/>
     <row r="35" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A35" s="83" t="s">
+      <c r="A35" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
     </row>
     <row r="36" spans="1:10" ht="27.95" customHeight="1">
       <c r="A36" s="10" t="s">
@@ -4517,17 +4569,17 @@
       <c r="J48" s="39"/>
     </row>
     <row r="49" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A49" s="83" t="s">
+      <c r="A49" s="91" t="s">
         <v>130</v>
       </c>
-      <c r="B49" s="83"/>
-      <c r="C49" s="83"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="84"/>
+      <c r="B49" s="91"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="91"/>
+      <c r="G49" s="91"/>
+      <c r="H49" s="91"/>
+      <c r="I49" s="92"/>
       <c r="J49" s="51"/>
     </row>
     <row r="50" spans="1:10" ht="27.95" customHeight="1">
@@ -5064,17 +5116,17 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="27.95" customHeight="1">
-      <c r="A71" s="85" t="s">
+      <c r="A71" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="B71" s="85"/>
-      <c r="C71" s="85"/>
-      <c r="D71" s="85"/>
-      <c r="E71" s="85"/>
-      <c r="F71" s="85"/>
-      <c r="G71" s="85"/>
-      <c r="H71" s="85"/>
-      <c r="I71" s="85"/>
+      <c r="B71" s="93"/>
+      <c r="C71" s="93"/>
+      <c r="D71" s="93"/>
+      <c r="E71" s="93"/>
+      <c r="F71" s="93"/>
+      <c r="G71" s="93"/>
+      <c r="H71" s="93"/>
+      <c r="I71" s="93"/>
     </row>
     <row r="72" spans="1:9" ht="27.95" customHeight="1">
       <c r="A72" s="11" t="s">
@@ -5157,7 +5209,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{4D5150BD-60FC-42EC-8538-A0F404D0BC2C}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5180,7 +5232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5199,46 +5251,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="100"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="100"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="102"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
+      <c r="A4" s="110"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="26" t="s">
@@ -5484,90 +5536,90 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="116" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="116" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="116" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="116" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="116" customWidth="1"/>
-    <col min="6" max="6" width="59.5703125" style="116" customWidth="1"/>
-    <col min="7" max="7" width="36.5703125" style="116" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="116"/>
+    <col min="1" max="1" width="29.42578125" style="87" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="87" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="87" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="87" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="87" customWidth="1"/>
+    <col min="6" max="6" width="59.5703125" style="87" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" style="87" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="87"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="62.25" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="112" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="115"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="114"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="115" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="117"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="105" t="s">
+      <c r="D3" s="81" t="s">
         <v>184</v>
       </c>
-      <c r="E3" s="105" t="s">
+      <c r="E3" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="F3" s="105" t="s">
+      <c r="F3" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="105" t="s">
+      <c r="G3" s="81" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="48" customHeight="1">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="82" t="s">
         <v>188</v>
       </c>
-      <c r="D4" s="107">
+      <c r="D4" s="83">
         <v>45201</v>
       </c>
-      <c r="E4" s="106" t="s">
+      <c r="E4" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="106" t="s">
+      <c r="F4" s="82" t="s">
         <v>190</v>
       </c>
-      <c r="G4" s="106"/>
+      <c r="G4" s="82"/>
     </row>
     <row r="5" spans="1:7" ht="48" customHeight="1">
       <c r="A5" s="37" t="s">
@@ -5579,7 +5631,7 @@
       <c r="C5" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="108">
+      <c r="D5" s="84">
         <v>45201</v>
       </c>
       <c r="E5" s="37" t="s">
@@ -5600,7 +5652,7 @@
       <c r="C6" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="D6" s="109">
+      <c r="D6" s="85">
         <v>45201</v>
       </c>
       <c r="E6" s="38" t="s">
@@ -5612,7 +5664,7 @@
       <c r="G6" s="38"/>
     </row>
     <row r="7" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="86" t="s">
         <v>198</v>
       </c>
       <c r="B7" s="37" t="s">
@@ -5621,7 +5673,7 @@
       <c r="C7" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="D7" s="108">
+      <c r="D7" s="84">
         <v>45201</v>
       </c>
       <c r="E7" s="37" t="s">
@@ -5633,61 +5685,61 @@
       <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="112"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="119"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="81" t="s">
         <v>184</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="F9" s="105" t="s">
+      <c r="F9" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="G9" s="105" t="s">
+      <c r="G9" s="81" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.25">
-      <c r="A10" s="106" t="s">
+    <row r="10" spans="1:7" ht="35.25" customHeight="1">
+      <c r="A10" s="82" t="s">
         <v>202</v>
       </c>
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="82" t="s">
         <v>188</v>
       </c>
-      <c r="D10" s="107">
+      <c r="D10" s="83">
         <v>45208</v>
       </c>
-      <c r="E10" s="106" t="s">
+      <c r="E10" s="82" t="s">
         <v>203</v>
       </c>
-      <c r="F10" s="106" t="s">
+      <c r="F10" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="G10" s="106"/>
-    </row>
-    <row r="11" spans="1:7" ht="33">
+      <c r="G10" s="82"/>
+    </row>
+    <row r="11" spans="1:7" ht="45.75" customHeight="1">
       <c r="A11" s="37" t="s">
         <v>205</v>
       </c>
@@ -5697,7 +5749,7 @@
       <c r="C11" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="D11" s="108">
+      <c r="D11" s="84">
         <v>45208</v>
       </c>
       <c r="E11" s="37" t="s">
@@ -5710,7 +5762,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="33">
+    <row r="12" spans="1:7" ht="39" customHeight="1">
       <c r="A12" s="38" t="s">
         <v>208</v>
       </c>
@@ -5720,7 +5772,7 @@
       <c r="C12" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="D12" s="109">
+      <c r="D12" s="85">
         <v>45208</v>
       </c>
       <c r="E12" s="38" t="s">
@@ -5731,8 +5783,8 @@
       </c>
       <c r="G12" s="38"/>
     </row>
-    <row r="13" spans="1:7" ht="17.25">
-      <c r="A13" s="110" t="s">
+    <row r="13" spans="1:7" ht="39.75" customHeight="1">
+      <c r="A13" s="86" t="s">
         <v>211</v>
       </c>
       <c r="B13" s="37" t="s">
@@ -5741,7 +5793,7 @@
       <c r="C13" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="108">
+      <c r="D13" s="84">
         <v>45208</v>
       </c>
       <c r="E13" s="37" t="s">
@@ -5753,156 +5805,320 @@
       <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="115" t="s">
         <v>214</v>
       </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="112"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="119"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="105" t="s">
+      <c r="A15" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="105" t="s">
+      <c r="C15" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="D15" s="105" t="s">
+      <c r="D15" s="81" t="s">
         <v>184</v>
       </c>
-      <c r="E15" s="105" t="s">
+      <c r="E15" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="F15" s="105" t="s">
+      <c r="F15" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="G15" s="105" t="s">
+      <c r="G15" s="81" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="33">
-      <c r="A16" s="106" t="s">
+    <row r="16" spans="1:7" ht="38.25" customHeight="1">
+      <c r="A16" s="82" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="107" t="s">
+      <c r="C16" s="83" t="s">
         <v>188</v>
       </c>
-      <c r="D16" s="107">
+      <c r="D16" s="83">
         <v>45212</v>
       </c>
-      <c r="E16" s="106" t="s">
+      <c r="E16" s="82" t="s">
         <v>203</v>
       </c>
-      <c r="G16" s="106"/>
-    </row>
-    <row r="17" spans="1:7" ht="17.25">
+      <c r="F16" s="82" t="s">
+        <v>222</v>
+      </c>
+      <c r="G16" s="82"/>
+    </row>
+    <row r="17" spans="1:7" ht="27" customHeight="1">
       <c r="A17" s="37" t="s">
         <v>216</v>
       </c>
       <c r="B17" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="D17" s="108">
+      <c r="D17" s="84">
         <v>45212</v>
       </c>
       <c r="E17" s="37" t="s">
         <v>199</v>
       </c>
+      <c r="F17" s="37" t="s">
+        <v>223</v>
+      </c>
       <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="1:7" ht="17.25">
+    <row r="18" spans="1:7" ht="24" customHeight="1">
       <c r="A18" s="38" t="s">
         <v>205</v>
       </c>
       <c r="B18" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="107" t="s">
+      <c r="C18" s="83" t="s">
         <v>188</v>
       </c>
-      <c r="D18" s="109">
+      <c r="D18" s="85">
         <v>45212</v>
       </c>
       <c r="E18" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="F18" s="119"/>
-      <c r="G18" s="106" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17.25">
-      <c r="A19" s="110" t="s">
+      <c r="F18" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="G18" s="82"/>
+    </row>
+    <row r="19" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A19" s="86" t="s">
         <v>217</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="D19" s="108">
+      <c r="D19" s="84">
         <v>45212</v>
       </c>
       <c r="E19" s="37" t="s">
         <v>218</v>
       </c>
+      <c r="F19" s="37" t="s">
+        <v>225</v>
+      </c>
       <c r="G19" s="37"/>
     </row>
-    <row r="20" spans="1:7" ht="17.25">
+    <row r="20" spans="1:7" ht="26.25" customHeight="1">
       <c r="A20" s="38" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B20" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="107" t="s">
+      <c r="C20" s="83" t="s">
         <v>188</v>
       </c>
-      <c r="D20" s="109">
+      <c r="D20" s="85">
         <v>45212</v>
       </c>
       <c r="E20" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="82"/>
+    </row>
+    <row r="21" spans="1:7" ht="46.5" customHeight="1">
+      <c r="A21" s="86" t="s">
         <v>220</v>
-      </c>
-      <c r="G20" s="106"/>
-    </row>
-    <row r="21" spans="1:7" ht="33">
-      <c r="A21" s="110" t="s">
-        <v>221</v>
       </c>
       <c r="B21" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="108" t="s">
+      <c r="C21" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="D21" s="108">
+      <c r="D21" s="84">
         <v>45212</v>
       </c>
       <c r="E21" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="G21" s="37"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="115" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="119"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="81" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23" s="81" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="81" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A24" s="82" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="83">
+        <v>45222</v>
+      </c>
+      <c r="E24" s="82" t="s">
+        <v>203</v>
+      </c>
+      <c r="F24" s="82" t="s">
         <v>222</v>
       </c>
-      <c r="G21" s="37"/>
+      <c r="G24" s="82"/>
+    </row>
+    <row r="25" spans="1:7" ht="34.5" customHeight="1">
+      <c r="A25" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="84" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" s="84">
+        <v>45222</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="G25" s="37"/>
+    </row>
+    <row r="26" spans="1:7" ht="34.5" customHeight="1">
+      <c r="A26" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" s="85">
+        <v>45222</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="G26" s="82"/>
+    </row>
+    <row r="27" spans="1:7" ht="33" customHeight="1">
+      <c r="A27" s="86" t="s">
+        <v>233</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="84" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="84">
+        <v>45222</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="G27" s="37"/>
+    </row>
+    <row r="28" spans="1:7" ht="28.5" customHeight="1">
+      <c r="A28" s="120" t="s">
+        <v>234</v>
+      </c>
+      <c r="B28" s="120" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="121" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="121">
+        <v>45222</v>
+      </c>
+      <c r="E28" s="120" t="s">
+        <v>219</v>
+      </c>
+      <c r="F28" s="120" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" s="120"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="88"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A22:G22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Documentação/backLogs e Planos de ação/planoDeAção BackLog PlanilhaDeRiscos.xlsx
+++ b/Documentação/backLogs e Planos de ação/planoDeAção BackLog PlanilhaDeRiscos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BackLogs" sheetId="4" r:id="rId1"/>
@@ -1663,6 +1663,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="31" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1754,12 +1760,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="31" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1938,6 +1938,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3103,8 +3104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView topLeftCell="B33" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView topLeftCell="E1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.95" customHeight="1"/>
@@ -3119,7 +3120,7 @@
     <col min="8" max="8" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="7"/>
-    <col min="11" max="11" width="30.28515625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="31.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="15.85546875" style="7" customWidth="1"/>
     <col min="15" max="15" width="16.140625" style="7" customWidth="1"/>
@@ -3136,31 +3137,31 @@
   <sheetData>
     <row r="1" spans="1:24" ht="53.25" customHeight="1">
       <c r="A1" s="8"/>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="96"/>
-      <c r="L1" s="89" t="s">
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="98"/>
+      <c r="L1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
     </row>
     <row r="2" spans="1:24" ht="27.95" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -3468,44 +3469,44 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="27.95" customHeight="1">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="98" t="s">
+      <c r="F7" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="98">
+      <c r="G7" s="100">
         <v>8</v>
       </c>
-      <c r="H7" s="97">
+      <c r="H7" s="99">
         <v>4</v>
       </c>
-      <c r="I7" s="104" t="s">
+      <c r="I7" s="106" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="27.95" customHeight="1">
-      <c r="A8" s="103"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="105"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="107"/>
     </row>
     <row r="9" spans="1:24" ht="27.95" customHeight="1">
       <c r="A9" s="11" t="s">
@@ -4221,17 +4222,17 @@
     </row>
     <row r="34" spans="1:10" ht="30.75" customHeight="1"/>
     <row r="35" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="91"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
     </row>
     <row r="36" spans="1:10" ht="27.95" customHeight="1">
       <c r="A36" s="10" t="s">
@@ -4569,17 +4570,17 @@
       <c r="J48" s="39"/>
     </row>
     <row r="49" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A49" s="91" t="s">
+      <c r="A49" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="B49" s="91"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="91"/>
-      <c r="F49" s="91"/>
-      <c r="G49" s="91"/>
-      <c r="H49" s="91"/>
-      <c r="I49" s="92"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="93"/>
+      <c r="I49" s="94"/>
       <c r="J49" s="51"/>
     </row>
     <row r="50" spans="1:10" ht="27.95" customHeight="1">
@@ -5116,17 +5117,17 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="27.95" customHeight="1">
-      <c r="A71" s="93" t="s">
+      <c r="A71" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="B71" s="93"/>
-      <c r="C71" s="93"/>
-      <c r="D71" s="93"/>
-      <c r="E71" s="93"/>
-      <c r="F71" s="93"/>
-      <c r="G71" s="93"/>
-      <c r="H71" s="93"/>
-      <c r="I71" s="93"/>
+      <c r="B71" s="95"/>
+      <c r="C71" s="95"/>
+      <c r="D71" s="95"/>
+      <c r="E71" s="95"/>
+      <c r="F71" s="95"/>
+      <c r="G71" s="95"/>
+      <c r="H71" s="95"/>
+      <c r="I71" s="95"/>
     </row>
     <row r="72" spans="1:9" ht="27.95" customHeight="1">
       <c r="A72" s="11" t="s">
@@ -5235,8 +5236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5251,46 +5252,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="108" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="108"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="108"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="110"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="26" t="s">
@@ -5404,7 +5405,7 @@
         <v>165</v>
       </c>
       <c r="C9" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="30">
         <v>2</v>
@@ -5436,7 +5437,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>169</v>
@@ -5539,8 +5540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView zoomScale="81" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5556,26 +5557,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="62.25" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="114"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="116"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="117" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="117"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="119"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="81" t="s">
@@ -5685,15 +5686,15 @@
       <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="117" t="s">
         <v>201</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="119"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="121"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="81" t="s">
@@ -5805,15 +5806,15 @@
       <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="115" t="s">
+      <c r="A14" s="117" t="s">
         <v>214</v>
       </c>
-      <c r="B14" s="118"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="119"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="121"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="81" t="s">
@@ -5965,15 +5966,15 @@
       <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="115" t="s">
+      <c r="A22" s="117" t="s">
         <v>229</v>
       </c>
-      <c r="B22" s="118"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="119"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="121"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="81" t="s">
@@ -6083,25 +6084,25 @@
       <c r="G27" s="37"/>
     </row>
     <row r="28" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A28" s="120" t="s">
+      <c r="A28" s="89" t="s">
         <v>234</v>
       </c>
-      <c r="B28" s="120" t="s">
+      <c r="B28" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="121" t="s">
+      <c r="C28" s="90" t="s">
         <v>188</v>
       </c>
-      <c r="D28" s="121">
+      <c r="D28" s="90">
         <v>45222</v>
       </c>
-      <c r="E28" s="120" t="s">
+      <c r="E28" s="89" t="s">
         <v>219</v>
       </c>
-      <c r="F28" s="120" t="s">
+      <c r="F28" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="G28" s="120"/>
+      <c r="G28" s="89"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="88"/>

--- a/Documentação/backLogs e Planos de ação/planoDeAção BackLog PlanilhaDeRiscos.xlsx
+++ b/Documentação/backLogs e Planos de ação/planoDeAção BackLog PlanilhaDeRiscos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="BackLogs" sheetId="4" r:id="rId1"/>
@@ -17,49 +17,17 @@
     <sheet name="Plano de Ação" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="236">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -766,6 +734,9 @@
   </si>
   <si>
     <t xml:space="preserve">Modulo analytics </t>
+  </si>
+  <si>
+    <t>Descrição de arquitetura técnica e simplificada para o técnico de TI e usuário</t>
   </si>
 </sst>
 </file>
@@ -3104,8 +3075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.95" customHeight="1"/>
@@ -3341,57 +3312,57 @@
 )</f>
         <v>163</v>
       </c>
-      <c r="N4" s="67" cm="1">
+      <c r="N4" s="67">
         <f t="array" ref="N4">IF(SUM(N3)&gt;0,M4-N3,n
 )</f>
         <v>147</v>
       </c>
-      <c r="O4" s="67" cm="1">
+      <c r="O4" s="67">
         <f t="array" ref="O4">IF(SUM(O3)&gt;0,N4-O3,n
 )</f>
         <v>130</v>
       </c>
-      <c r="P4" s="67" cm="1">
+      <c r="P4" s="67">
         <f t="array" ref="P4">IF(SUM(P3)&gt;0,O4-P3,n
 )</f>
         <v>112</v>
       </c>
-      <c r="Q4" s="67" cm="1">
+      <c r="Q4" s="67">
         <f t="array" ref="Q4">IF(SUM(Q3)&gt;0,P4-Q3,n
 )</f>
         <v>95</v>
       </c>
-      <c r="R4" s="67" cm="1">
+      <c r="R4" s="67">
         <f t="array" ref="R4">IF(SUM(R3)&gt;0,Q4-R3,n
 )</f>
         <v>80</v>
       </c>
-      <c r="S4" s="67" cm="1">
+      <c r="S4" s="67">
         <f t="array" ref="S4">IF(SUM(S3)&gt;0,R4-S3,n
 )</f>
         <v>64</v>
       </c>
-      <c r="T4" s="67" cm="1">
+      <c r="T4" s="67">
         <f t="array" ref="T4">IF(SUM(T3)&gt;0,S4-T3,n
 )</f>
         <v>47</v>
       </c>
-      <c r="U4" s="67" cm="1">
+      <c r="U4" s="67">
         <f t="array" ref="U4">IF(SUM(U3)&gt;0,T4-U3,n
 )</f>
         <v>31</v>
       </c>
-      <c r="V4" s="67" cm="1">
+      <c r="V4" s="67">
         <f t="array" ref="V4">IF(SUM(V3)&gt;0,U4-V3,n
 )</f>
         <v>16</v>
       </c>
-      <c r="W4" s="67" cm="1">
+      <c r="W4" s="67">
         <f t="array" ref="W4">IF(SUM(W3)&gt;0,V4-W3,n
 )</f>
         <v>0</v>
       </c>
-      <c r="X4" s="67" t="e" cm="1">
+      <c r="X4" s="67" t="e">
         <f t="array" ref="X4">IF(SUM(X3)&gt;0,W4-X3,n
 )</f>
         <v>#NAME?</v>
@@ -3664,7 +3635,7 @@
         <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>235</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>44</v>
@@ -5210,7 +5181,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5236,8 +5207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="145" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Documentação/backLogs e Planos de ação/planoDeAção BackLog PlanilhaDeRiscos.xlsx
+++ b/Documentação/backLogs e Planos de ação/planoDeAção BackLog PlanilhaDeRiscos.xlsx
@@ -1,33 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Desktop\Material Sptech\Projetos\MushRoomCompany\Documentação\backLogs e Planos de ação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pehso\Downloads\git backaup\MushRoomCompany\Documentação\backLogs e Planos de ação\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710717FF-96A9-4CC9-84F5-914818D8194F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BackLogs" sheetId="4" r:id="rId1"/>
     <sheet name="Planilha de Riscos" sheetId="2" r:id="rId2"/>
     <sheet name="Plano de Ação" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="245">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -737,16 +748,43 @@
   </si>
   <si>
     <t>Descrição de arquitetura técnica e simplificada para o técnico de TI e usuário</t>
+  </si>
+  <si>
+    <t>• Manual de Instalação</t>
+  </si>
+  <si>
+    <t>Planilha de Homologação do Projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxograma do suporte </t>
+  </si>
+  <si>
+    <t>Ferramenta de Help Desk</t>
+  </si>
+  <si>
+    <t>Documento de Mudança</t>
+  </si>
+  <si>
+    <t>Integração com o banco de dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teste integrado do analytics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teste integrado da solução de IoT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagrama de fácil  visualização para o cliente e que apresente uma visão geral do funcionamento do projeto. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -872,6 +910,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Quire Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1368,7 +1418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1631,107 +1681,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="31" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="31" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1909,7 +1971,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3072,17 +3133,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="27.95" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="104.7109375" style="7" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" style="7" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" style="7" customWidth="1"/>
@@ -3106,35 +3167,35 @@
     <col min="25" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="53.25" customHeight="1">
+    <row r="1" spans="1:24" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="98"/>
-      <c r="L1" s="91" t="s">
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="97"/>
+      <c r="L1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-    </row>
-    <row r="2" spans="1:24" ht="27.95" customHeight="1">
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+    </row>
+    <row r="2" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3202,7 +3263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="27.95" customHeight="1">
+    <row r="3" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>24</v>
       </c>
@@ -3272,7 +3333,7 @@
       </c>
       <c r="X3" s="66"/>
     </row>
-    <row r="4" spans="1:24" ht="27.95" customHeight="1">
+    <row r="4" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
@@ -3368,7 +3429,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="27.95" customHeight="1">
+    <row r="5" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>36</v>
       </c>
@@ -3410,7 +3471,7 @@
       <c r="W5" s="70"/>
       <c r="X5" s="70"/>
     </row>
-    <row r="6" spans="1:24" ht="27.95" customHeight="1">
+    <row r="6" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
@@ -3439,47 +3500,47 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="27.95" customHeight="1">
-      <c r="A7" s="104" t="s">
+    <row r="7" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="102" t="s">
+      <c r="D7" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="103" t="s">
+      <c r="E7" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="100" t="s">
+      <c r="F7" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="100">
+      <c r="G7" s="99">
         <v>8</v>
       </c>
-      <c r="H7" s="99">
+      <c r="H7" s="98">
         <v>4</v>
       </c>
-      <c r="I7" s="106" t="s">
+      <c r="I7" s="105" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="27.95" customHeight="1">
-      <c r="A8" s="105"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="107"/>
-    </row>
-    <row r="9" spans="1:24" ht="27.95" customHeight="1">
+    <row r="8" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="104"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="106"/>
+    </row>
+    <row r="9" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>50</v>
       </c>
@@ -3508,7 +3569,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="27.95" customHeight="1">
+    <row r="10" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>53</v>
       </c>
@@ -3540,7 +3601,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="27.95" customHeight="1">
+    <row r="11" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>57</v>
       </c>
@@ -3569,7 +3630,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="27.95" customHeight="1">
+    <row r="12" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>61</v>
       </c>
@@ -3598,7 +3659,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="27.95" customHeight="1">
+    <row r="13" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>64</v>
       </c>
@@ -3627,7 +3688,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="27.95" customHeight="1">
+    <row r="14" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>67</v>
       </c>
@@ -3656,7 +3717,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="27.95" customHeight="1">
+    <row r="15" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>71</v>
       </c>
@@ -3685,7 +3746,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="27.95" customHeight="1">
+    <row r="16" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>74</v>
       </c>
@@ -3714,7 +3775,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27.95" customHeight="1">
+    <row r="17" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>77</v>
       </c>
@@ -3743,7 +3804,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="26.25" customHeight="1">
+    <row r="18" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>80</v>
       </c>
@@ -3772,7 +3833,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="27.95" customHeight="1">
+    <row r="19" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>83</v>
       </c>
@@ -3801,7 +3862,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="27.95" customHeight="1">
+    <row r="20" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>86</v>
       </c>
@@ -3830,7 +3891,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="27.95" customHeight="1">
+    <row r="21" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>89</v>
       </c>
@@ -3859,7 +3920,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="27.95" customHeight="1">
+    <row r="22" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>92</v>
       </c>
@@ -3888,7 +3949,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="27.95" customHeight="1">
+    <row r="23" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>96</v>
       </c>
@@ -3917,7 +3978,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="27.95" customHeight="1">
+    <row r="24" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>99</v>
       </c>
@@ -3946,7 +4007,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="27.95" customHeight="1">
+    <row r="25" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>103</v>
       </c>
@@ -3975,7 +4036,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="27.95" customHeight="1">
+    <row r="26" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="76" t="s">
         <v>106</v>
       </c>
@@ -4002,7 +4063,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="27.95" customHeight="1">
+    <row r="27" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>109</v>
       </c>
@@ -4029,7 +4090,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="27.95" customHeight="1">
+    <row r="28" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>112</v>
       </c>
@@ -4056,7 +4117,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="27.95" customHeight="1">
+    <row r="29" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>115</v>
       </c>
@@ -4083,7 +4144,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="27.95" customHeight="1">
+    <row r="30" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>118</v>
       </c>
@@ -4110,7 +4171,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="27.95" customHeight="1">
+    <row r="31" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>121</v>
       </c>
@@ -4137,7 +4198,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="27.95" customHeight="1">
+    <row r="32" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>124</v>
       </c>
@@ -4164,7 +4225,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="24" customHeight="1">
+    <row r="33" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>127</v>
       </c>
@@ -4191,21 +4252,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="30.75" customHeight="1"/>
-    <row r="35" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A35" s="93" t="s">
+    <row r="34" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="B35" s="93"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93"/>
-    </row>
-    <row r="36" spans="1:10" ht="27.95" customHeight="1">
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+    </row>
+    <row r="36" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>36</v>
       </c>
@@ -4234,7 +4295,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="27.95" customHeight="1">
+    <row r="37" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>50</v>
       </c>
@@ -4263,7 +4324,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="27.95" customHeight="1">
+    <row r="38" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>61</v>
       </c>
@@ -4292,7 +4353,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="27.95" customHeight="1">
+    <row r="39" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>77</v>
       </c>
@@ -4321,7 +4382,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="27.75" customHeight="1">
+    <row r="40" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>106</v>
       </c>
@@ -4348,7 +4409,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="45.75" hidden="1" customHeight="1">
+    <row r="41" spans="1:10" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>109</v>
       </c>
@@ -4375,7 +4436,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="45.75" customHeight="1">
+    <row r="42" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>112</v>
       </c>
@@ -4402,7 +4463,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="27.95" customHeight="1">
+    <row r="43" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>115</v>
       </c>
@@ -4429,7 +4490,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="27.95" customHeight="1">
+    <row r="44" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>118</v>
       </c>
@@ -4456,7 +4517,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="27.95" customHeight="1">
+    <row r="45" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>121</v>
       </c>
@@ -4483,7 +4544,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="27.95" customHeight="1">
+    <row r="46" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>124</v>
       </c>
@@ -4510,7 +4571,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="27.95" customHeight="1">
+    <row r="47" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>127</v>
       </c>
@@ -4537,24 +4598,24 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="27.95" customHeight="1">
+    <row r="48" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J48" s="39"/>
     </row>
-    <row r="49" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A49" s="93" t="s">
+    <row r="49" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="B49" s="93"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="93"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="93"/>
-      <c r="H49" s="93"/>
-      <c r="I49" s="94"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="92"/>
+      <c r="H49" s="92"/>
+      <c r="I49" s="93"/>
       <c r="J49" s="51"/>
     </row>
-    <row r="50" spans="1:10" ht="27.95" customHeight="1">
+    <row r="50" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="43" t="s">
         <v>24</v>
       </c>
@@ -4583,7 +4644,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="27.95" customHeight="1">
+    <row r="51" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="43" t="s">
         <v>32</v>
       </c>
@@ -4612,7 +4673,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="27.95" customHeight="1">
+    <row r="52" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
         <v>41</v>
       </c>
@@ -4641,7 +4702,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="27.95" customHeight="1">
+    <row r="53" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="64" t="s">
         <v>47</v>
       </c>
@@ -4670,7 +4731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="27.95" customHeight="1">
+    <row r="54" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="65"/>
       <c r="B54" s="55"/>
       <c r="C54" s="55"/>
@@ -4681,7 +4742,7 @@
       <c r="H54" s="59"/>
       <c r="I54" s="57"/>
     </row>
-    <row r="55" spans="1:10" ht="27.95" customHeight="1">
+    <row r="55" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="43" t="s">
         <v>64</v>
       </c>
@@ -4710,7 +4771,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="27.95" customHeight="1">
+    <row r="56" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="47" t="s">
         <v>57</v>
       </c>
@@ -4739,7 +4800,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="27.95" customHeight="1">
+    <row r="57" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="43" t="s">
         <v>74</v>
       </c>
@@ -4768,7 +4829,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="27.95" customHeight="1">
+    <row r="58" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="43" t="s">
         <v>80</v>
       </c>
@@ -4797,7 +4858,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="27.95" customHeight="1">
+    <row r="59" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="43" t="s">
         <v>83</v>
       </c>
@@ -4826,7 +4887,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="27.95" customHeight="1">
+    <row r="60" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="43" t="s">
         <v>86</v>
       </c>
@@ -4855,7 +4916,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="27.95" customHeight="1">
+    <row r="61" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="47" t="s">
         <v>71</v>
       </c>
@@ -4884,7 +4945,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="27.95" customHeight="1">
+    <row r="62" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="43" t="s">
         <v>80</v>
       </c>
@@ -4913,7 +4974,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="27.95" customHeight="1">
+    <row r="63" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="43" t="s">
         <v>118</v>
       </c>
@@ -4942,7 +5003,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="27.95" customHeight="1">
+    <row r="64" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
         <v>83</v>
       </c>
@@ -4971,7 +5032,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="27.95" customHeight="1">
+    <row r="65" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="47" t="s">
         <v>89</v>
       </c>
@@ -5000,7 +5061,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="27.95" customHeight="1">
+    <row r="66" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="43" t="s">
         <v>142</v>
       </c>
@@ -5029,7 +5090,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="27.95" customHeight="1">
+    <row r="67" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
         <v>143</v>
       </c>
@@ -5058,7 +5119,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="27.95" customHeight="1">
+    <row r="68" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="43" t="s">
         <v>144</v>
       </c>
@@ -5087,20 +5148,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="27.95" customHeight="1">
-      <c r="A71" s="95" t="s">
+    <row r="71" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="94" t="s">
         <v>145</v>
       </c>
-      <c r="B71" s="95"/>
-      <c r="C71" s="95"/>
-      <c r="D71" s="95"/>
-      <c r="E71" s="95"/>
-      <c r="F71" s="95"/>
-      <c r="G71" s="95"/>
-      <c r="H71" s="95"/>
-      <c r="I71" s="95"/>
-    </row>
-    <row r="72" spans="1:9" ht="27.95" customHeight="1">
+      <c r="B71" s="94"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="94"/>
+      <c r="F71" s="94"/>
+      <c r="G71" s="94"/>
+      <c r="H71" s="94"/>
+      <c r="I71" s="94"/>
+    </row>
+    <row r="72" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>67</v>
       </c>
@@ -5108,7 +5169,7 @@
         <v>68</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>69</v>
+        <v>244</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>44</v>
@@ -5129,7 +5190,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="27.95" customHeight="1">
+    <row r="73" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>80</v>
       </c>
@@ -5157,6 +5218,145 @@
       <c r="I73" s="22" t="s">
         <v>70</v>
       </c>
+    </row>
+    <row r="74" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" s="123" t="s">
+        <v>236</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+    </row>
+    <row r="75" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" s="123" t="s">
+        <v>237</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+    </row>
+    <row r="76" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="121" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" s="124" t="s">
+        <v>238</v>
+      </c>
+      <c r="C76" s="122" t="s">
+        <v>69</v>
+      </c>
+      <c r="D76" s="122"/>
+      <c r="E76" s="122"/>
+      <c r="F76" s="122"/>
+      <c r="G76" s="122"/>
+      <c r="H76" s="122"/>
+      <c r="I76" s="122"/>
+    </row>
+    <row r="77" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B77" s="123" t="s">
+        <v>239</v>
+      </c>
+      <c r="C77" s="122" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+    </row>
+    <row r="78" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" s="123" t="s">
+        <v>240</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+    </row>
+    <row r="79" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+    </row>
+    <row r="80" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B80" s="123" t="s">
+        <v>242</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+    </row>
+    <row r="81" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B81" s="123" t="s">
+        <v>243</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+    </row>
+    <row r="84" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C84" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5175,13 +5375,14 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="I7:I8"/>
   </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap">
+        <x14:sparklineGroup manualMax="0" manualMin="0" displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0000-000000000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5204,14 +5405,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView zoomScale="145" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
@@ -5222,49 +5423,49 @@
     <col min="8" max="8" width="67" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="110"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="110"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="112"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="109"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="111"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>147</v>
       </c>
@@ -5290,7 +5491,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>1</v>
       </c>
@@ -5316,7 +5517,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>2</v>
       </c>
@@ -5342,7 +5543,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>3</v>
       </c>
@@ -5368,7 +5569,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>4</v>
       </c>
@@ -5394,7 +5595,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="11.25" customHeight="1">
+    <row r="10" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>5</v>
       </c>
@@ -5420,7 +5621,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>6</v>
       </c>
@@ -5446,7 +5647,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>7</v>
       </c>
@@ -5472,7 +5673,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>8</v>
       </c>
@@ -5498,7 +5699,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" ht="11.25" customHeight="1"/>
+    <row r="17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H4"/>
@@ -5508,14 +5709,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" style="87" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" style="87" customWidth="1"/>
@@ -5527,29 +5728,29 @@
     <col min="8" max="16384" width="9.140625" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="62.25" customHeight="1">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="113" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="116"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="117" t="s">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="115"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="116" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="81" t="s">
         <v>182</v>
       </c>
@@ -5572,7 +5773,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="48" customHeight="1">
+    <row r="4" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
         <v>187</v>
       </c>
@@ -5593,7 +5794,7 @@
       </c>
       <c r="G4" s="82"/>
     </row>
-    <row r="5" spans="1:7" ht="48" customHeight="1">
+    <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>191</v>
       </c>
@@ -5614,7 +5815,7 @@
       </c>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:7" ht="48" customHeight="1">
+    <row r="6" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>195</v>
       </c>
@@ -5635,7 +5836,7 @@
       </c>
       <c r="G6" s="38"/>
     </row>
-    <row r="7" spans="1:7" ht="50.25" customHeight="1">
+    <row r="7" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="86" t="s">
         <v>198</v>
       </c>
@@ -5656,18 +5857,18 @@
       </c>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="117" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="116" t="s">
         <v>201</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="121"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="120"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="81" t="s">
         <v>182</v>
       </c>
@@ -5690,7 +5891,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="35.25" customHeight="1">
+    <row r="10" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="82" t="s">
         <v>202</v>
       </c>
@@ -5711,7 +5912,7 @@
       </c>
       <c r="G10" s="82"/>
     </row>
-    <row r="11" spans="1:7" ht="45.75" customHeight="1">
+    <row r="11" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>205</v>
       </c>
@@ -5734,7 +5935,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="39" customHeight="1">
+    <row r="12" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>208</v>
       </c>
@@ -5755,7 +5956,7 @@
       </c>
       <c r="G12" s="38"/>
     </row>
-    <row r="13" spans="1:7" ht="39.75" customHeight="1">
+    <row r="13" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="86" t="s">
         <v>211</v>
       </c>
@@ -5776,18 +5977,18 @@
       </c>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="117" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="116" t="s">
         <v>214</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="121"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="120"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="81" t="s">
         <v>182</v>
       </c>
@@ -5810,7 +6011,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="38.25" customHeight="1">
+    <row r="16" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="82" t="s">
         <v>215</v>
       </c>
@@ -5831,7 +6032,7 @@
       </c>
       <c r="G16" s="82"/>
     </row>
-    <row r="17" spans="1:7" ht="27" customHeight="1">
+    <row r="17" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>216</v>
       </c>
@@ -5852,7 +6053,7 @@
       </c>
       <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="1:7" ht="24" customHeight="1">
+    <row r="18" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>205</v>
       </c>
@@ -5873,7 +6074,7 @@
       </c>
       <c r="G18" s="82"/>
     </row>
-    <row r="19" spans="1:7" ht="40.5" customHeight="1">
+    <row r="19" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="86" t="s">
         <v>217</v>
       </c>
@@ -5894,7 +6095,7 @@
       </c>
       <c r="G19" s="37"/>
     </row>
-    <row r="20" spans="1:7" ht="26.25" customHeight="1">
+    <row r="20" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>226</v>
       </c>
@@ -5915,7 +6116,7 @@
       </c>
       <c r="G20" s="82"/>
     </row>
-    <row r="21" spans="1:7" ht="46.5" customHeight="1">
+    <row r="21" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="86" t="s">
         <v>220</v>
       </c>
@@ -5936,18 +6137,18 @@
       </c>
       <c r="G21" s="37"/>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="117" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="116" t="s">
         <v>229</v>
       </c>
-      <c r="B22" s="120"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="121"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="120"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="81" t="s">
         <v>182</v>
       </c>
@@ -5970,7 +6171,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="26.25" customHeight="1">
+    <row r="24" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="82" t="s">
         <v>230</v>
       </c>
@@ -5991,7 +6192,7 @@
       </c>
       <c r="G24" s="82"/>
     </row>
-    <row r="25" spans="1:7" ht="34.5" customHeight="1">
+    <row r="25" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
         <v>231</v>
       </c>
@@ -6012,7 +6213,7 @@
       </c>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:7" ht="34.5" customHeight="1">
+    <row r="26" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="38" t="s">
         <v>232</v>
       </c>
@@ -6033,7 +6234,7 @@
       </c>
       <c r="G26" s="82"/>
     </row>
-    <row r="27" spans="1:7" ht="33" customHeight="1">
+    <row r="27" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="86" t="s">
         <v>233</v>
       </c>
@@ -6054,35 +6255,26 @@
       </c>
       <c r="G27" s="37"/>
     </row>
-    <row r="28" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A28" s="89" t="s">
+    <row r="28" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="88" t="s">
         <v>234</v>
       </c>
-      <c r="B28" s="89" t="s">
+      <c r="B28" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="90" t="s">
+      <c r="C28" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="D28" s="90">
+      <c r="D28" s="89">
         <v>45222</v>
       </c>
-      <c r="E28" s="89" t="s">
+      <c r="E28" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="F28" s="89" t="s">
+      <c r="F28" s="88" t="s">
         <v>227</v>
       </c>
-      <c r="G28" s="89"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="88"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
+      <c r="G28" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Documentação/backLogs e Planos de ação/planoDeAção BackLog PlanilhaDeRiscos.xlsx
+++ b/Documentação/backLogs e Planos de ação/planoDeAção BackLog PlanilhaDeRiscos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pehso\Downloads\git backaup\MushRoomCompany\Documentação\backLogs e Planos de ação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710717FF-96A9-4CC9-84F5-914818D8194F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7757BA-1B6D-48E1-BA1A-E6350EE4481C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BackLogs" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="250">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -775,6 +775,21 @@
   </si>
   <si>
     <t xml:space="preserve">Diagrama de fácil  visualização para o cliente e que apresente uma visão geral do funcionamento do projeto. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual com instruções e passo a passo de monntagem do ardoino </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fluxograma visual do funcionamento dos chamados de suporte </t>
+  </si>
+  <si>
+    <t>ferramenta para abrir chamados de incidentes, problemas e requisições</t>
+  </si>
+  <si>
+    <t>formulario de gmud</t>
+  </si>
+  <si>
+    <t>Inportante</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1687,6 +1702,18 @@
     <xf numFmtId="164" fontId="8" fillId="31" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1779,21 +1806,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3134,68 +3146,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X84"/>
+  <dimension ref="A1:X81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="104.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="7"/>
-    <col min="11" max="11" width="31.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="15.85546875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="104.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="7"/>
+    <col min="11" max="11" width="31.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.88671875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="16.44140625" style="7" customWidth="1"/>
     <col min="17" max="17" width="16" style="7" customWidth="1"/>
-    <col min="18" max="19" width="15.7109375" style="7" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" style="7" customWidth="1"/>
-    <col min="21" max="21" width="16.140625" style="7" customWidth="1"/>
-    <col min="22" max="22" width="16.28515625" style="7" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" style="7" customWidth="1"/>
-    <col min="24" max="24" width="15.85546875" style="7" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="7"/>
+    <col min="18" max="19" width="15.6640625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="15.88671875" style="7" customWidth="1"/>
+    <col min="21" max="21" width="16.109375" style="7" customWidth="1"/>
+    <col min="22" max="22" width="16.33203125" style="7" customWidth="1"/>
+    <col min="23" max="23" width="16.6640625" style="7" customWidth="1"/>
+    <col min="24" max="24" width="15.88671875" style="7" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="97"/>
-      <c r="L1" s="90" t="s">
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="101"/>
+      <c r="L1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-    </row>
-    <row r="2" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+    </row>
+    <row r="2" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3263,7 +3275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>24</v>
       </c>
@@ -3333,7 +3345,7 @@
       </c>
       <c r="X3" s="66"/>
     </row>
-    <row r="4" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
@@ -3429,7 +3441,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>36</v>
       </c>
@@ -3471,7 +3483,7 @@
       <c r="W5" s="70"/>
       <c r="X5" s="70"/>
     </row>
-    <row r="6" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
@@ -3500,47 +3512,47 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
+    <row r="7" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="102" t="s">
+      <c r="E7" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="99" t="s">
+      <c r="F7" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="99">
+      <c r="G7" s="103">
         <v>8</v>
       </c>
-      <c r="H7" s="98">
+      <c r="H7" s="102">
         <v>4</v>
       </c>
-      <c r="I7" s="105" t="s">
+      <c r="I7" s="109" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="106"/>
-    </row>
-    <row r="9" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="108"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="110"/>
+    </row>
+    <row r="9" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>50</v>
       </c>
@@ -3569,7 +3581,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>53</v>
       </c>
@@ -3601,7 +3613,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>57</v>
       </c>
@@ -3630,7 +3642,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>61</v>
       </c>
@@ -3659,7 +3671,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>64</v>
       </c>
@@ -3688,7 +3700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>67</v>
       </c>
@@ -3717,7 +3729,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>71</v>
       </c>
@@ -3746,7 +3758,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>74</v>
       </c>
@@ -3775,7 +3787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>77</v>
       </c>
@@ -3804,7 +3816,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>80</v>
       </c>
@@ -3833,7 +3845,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>83</v>
       </c>
@@ -3862,7 +3874,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>86</v>
       </c>
@@ -3891,7 +3903,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>89</v>
       </c>
@@ -3920,7 +3932,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>92</v>
       </c>
@@ -3949,7 +3961,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>96</v>
       </c>
@@ -3978,7 +3990,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>99</v>
       </c>
@@ -4007,7 +4019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>103</v>
       </c>
@@ -4036,7 +4048,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="76" t="s">
         <v>106</v>
       </c>
@@ -4063,7 +4075,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>109</v>
       </c>
@@ -4090,7 +4102,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>112</v>
       </c>
@@ -4117,7 +4129,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>115</v>
       </c>
@@ -4144,7 +4156,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>118</v>
       </c>
@@ -4171,7 +4183,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>121</v>
       </c>
@@ -4198,7 +4210,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>124</v>
       </c>
@@ -4225,7 +4237,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>127</v>
       </c>
@@ -4252,21 +4264,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="92" t="s">
+    <row r="34" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-    </row>
-    <row r="36" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="96"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+    </row>
+    <row r="36" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>36</v>
       </c>
@@ -4295,7 +4307,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>50</v>
       </c>
@@ -4324,7 +4336,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>61</v>
       </c>
@@ -4353,7 +4365,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>77</v>
       </c>
@@ -4382,7 +4394,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>106</v>
       </c>
@@ -4409,7 +4421,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>109</v>
       </c>
@@ -4436,7 +4448,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>112</v>
       </c>
@@ -4463,7 +4475,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>115</v>
       </c>
@@ -4490,7 +4502,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>118</v>
       </c>
@@ -4517,7 +4529,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>121</v>
       </c>
@@ -4544,7 +4556,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>124</v>
       </c>
@@ -4571,7 +4583,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>127</v>
       </c>
@@ -4598,24 +4610,24 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J48" s="39"/>
     </row>
-    <row r="49" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="92" t="s">
+    <row r="49" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="96" t="s">
         <v>130</v>
       </c>
-      <c r="B49" s="92"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="92"/>
-      <c r="G49" s="92"/>
-      <c r="H49" s="92"/>
-      <c r="I49" s="93"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="97"/>
       <c r="J49" s="51"/>
     </row>
-    <row r="50" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="43" t="s">
         <v>24</v>
       </c>
@@ -4644,7 +4656,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="43" t="s">
         <v>32</v>
       </c>
@@ -4673,7 +4685,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="47" t="s">
         <v>41</v>
       </c>
@@ -4702,7 +4714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="64" t="s">
         <v>47</v>
       </c>
@@ -4731,7 +4743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="65"/>
       <c r="B54" s="55"/>
       <c r="C54" s="55"/>
@@ -4742,7 +4754,7 @@
       <c r="H54" s="59"/>
       <c r="I54" s="57"/>
     </row>
-    <row r="55" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="43" t="s">
         <v>64</v>
       </c>
@@ -4771,7 +4783,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="47" t="s">
         <v>57</v>
       </c>
@@ -4800,7 +4812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="43" t="s">
         <v>74</v>
       </c>
@@ -4829,7 +4841,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="43" t="s">
         <v>80</v>
       </c>
@@ -4858,7 +4870,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="43" t="s">
         <v>83</v>
       </c>
@@ -4887,7 +4899,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="43" t="s">
         <v>86</v>
       </c>
@@ -4916,7 +4928,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="47" t="s">
         <v>71</v>
       </c>
@@ -4945,7 +4957,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="43" t="s">
         <v>80</v>
       </c>
@@ -4974,7 +4986,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="43" t="s">
         <v>118</v>
       </c>
@@ -5003,7 +5015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="43" t="s">
         <v>83</v>
       </c>
@@ -5032,7 +5044,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="47" t="s">
         <v>89</v>
       </c>
@@ -5061,7 +5073,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="43" t="s">
         <v>142</v>
       </c>
@@ -5090,7 +5102,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="43" t="s">
         <v>143</v>
       </c>
@@ -5119,7 +5131,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="43" t="s">
         <v>144</v>
       </c>
@@ -5148,20 +5160,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="94" t="s">
+    <row r="71" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="B71" s="94"/>
-      <c r="C71" s="94"/>
-      <c r="D71" s="94"/>
-      <c r="E71" s="94"/>
-      <c r="F71" s="94"/>
-      <c r="G71" s="94"/>
-      <c r="H71" s="94"/>
-      <c r="I71" s="94"/>
-    </row>
-    <row r="72" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="98"/>
+      <c r="C71" s="98"/>
+      <c r="D71" s="98"/>
+      <c r="E71" s="98"/>
+      <c r="F71" s="98"/>
+      <c r="G71" s="98"/>
+      <c r="H71" s="98"/>
+      <c r="I71" s="98"/>
+    </row>
+    <row r="72" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
         <v>67</v>
       </c>
@@ -5190,7 +5202,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>80</v>
       </c>
@@ -5219,92 +5231,152 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B74" s="123" t="s">
+      <c r="B74" s="92" t="s">
         <v>236</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-    </row>
-    <row r="75" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="D74" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" s="15">
+        <v>8</v>
+      </c>
+      <c r="H74" s="19">
+        <v>15</v>
+      </c>
+      <c r="I74" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B75" s="123" t="s">
+      <c r="B75" s="92" t="s">
         <v>237</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-    </row>
-    <row r="76" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="121" t="s">
+      <c r="D75" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="15">
+        <v>8</v>
+      </c>
+      <c r="H75" s="19">
+        <v>15</v>
+      </c>
+      <c r="I75" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="B76" s="124" t="s">
+      <c r="B76" s="93" t="s">
         <v>238</v>
       </c>
-      <c r="C76" s="122" t="s">
-        <v>69</v>
-      </c>
-      <c r="D76" s="122"/>
-      <c r="E76" s="122"/>
-      <c r="F76" s="122"/>
-      <c r="G76" s="122"/>
-      <c r="H76" s="122"/>
-      <c r="I76" s="122"/>
-    </row>
-    <row r="77" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="D76" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" s="15">
+        <v>8</v>
+      </c>
+      <c r="H76" s="19">
+        <v>15</v>
+      </c>
+      <c r="I76" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B77" s="123" t="s">
+      <c r="B77" s="92" t="s">
         <v>239</v>
       </c>
-      <c r="C77" s="122" t="s">
-        <v>69</v>
-      </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-    </row>
-    <row r="78" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="91" t="s">
+        <v>247</v>
+      </c>
+      <c r="D77" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" s="15">
+        <v>8</v>
+      </c>
+      <c r="H77" s="19">
+        <v>15</v>
+      </c>
+      <c r="I77" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B78" s="123" t="s">
+      <c r="B78" s="92" t="s">
         <v>240</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-    </row>
-    <row r="79" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="D78" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" s="15">
+        <v>8</v>
+      </c>
+      <c r="H78" s="19">
+        <v>15</v>
+      </c>
+      <c r="I78" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>118</v>
       </c>
@@ -5314,49 +5386,78 @@
       <c r="C79" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-    </row>
-    <row r="80" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D79" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G79" s="15">
+        <v>8</v>
+      </c>
+      <c r="H79" s="19">
+        <v>15</v>
+      </c>
+      <c r="I79" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B80" s="123" t="s">
+      <c r="B80" s="92" t="s">
         <v>242</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-    </row>
-    <row r="81" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D80" s="41"/>
+      <c r="E80" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G80" s="15">
+        <v>8</v>
+      </c>
+      <c r="H80" s="19">
+        <v>15</v>
+      </c>
+      <c r="I80" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B81" s="123" t="s">
+      <c r="B81" s="92" t="s">
         <v>243</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-    </row>
-    <row r="84" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C84" s="125"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G81" s="15">
+        <v>8</v>
+      </c>
+      <c r="H81" s="19">
+        <v>15</v>
+      </c>
+      <c r="I81" s="22" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5412,60 +5513,60 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="67" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="109"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="109"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="111"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="113"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="115"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>147</v>
       </c>
@@ -5491,7 +5592,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="29">
         <v>1</v>
       </c>
@@ -5517,7 +5618,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="29">
         <v>2</v>
       </c>
@@ -5543,7 +5644,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="29">
         <v>3</v>
       </c>
@@ -5569,7 +5670,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="29">
         <v>4</v>
       </c>
@@ -5595,7 +5696,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>5</v>
       </c>
@@ -5621,7 +5722,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <v>6</v>
       </c>
@@ -5647,7 +5748,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="29">
         <v>7</v>
       </c>
@@ -5673,7 +5774,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="29">
         <v>8</v>
       </c>
@@ -5699,7 +5800,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H4"/>
@@ -5716,41 +5817,41 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="87" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="87" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="87" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="87" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="87" customWidth="1"/>
-    <col min="6" max="6" width="59.5703125" style="87" customWidth="1"/>
-    <col min="7" max="7" width="36.5703125" style="87" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="87"/>
+    <col min="1" max="1" width="29.44140625" style="87" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="87" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" style="87" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="87" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" style="87" customWidth="1"/>
+    <col min="6" max="6" width="59.5546875" style="87" customWidth="1"/>
+    <col min="7" max="7" width="36.5546875" style="87" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+    <row r="1" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="117" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="115"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="116" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="119"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="120" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="122"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="81" t="s">
         <v>182</v>
       </c>
@@ -5773,7 +5874,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="82" t="s">
         <v>187</v>
       </c>
@@ -5794,7 +5895,7 @@
       </c>
       <c r="G4" s="82"/>
     </row>
-    <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>191</v>
       </c>
@@ -5815,7 +5916,7 @@
       </c>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
         <v>195</v>
       </c>
@@ -5836,7 +5937,7 @@
       </c>
       <c r="G6" s="38"/>
     </row>
-    <row r="7" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="86" t="s">
         <v>198</v>
       </c>
@@ -5857,18 +5958,18 @@
       </c>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="116" t="s">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="120" t="s">
         <v>201</v>
       </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="120"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="124"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="81" t="s">
         <v>182</v>
       </c>
@@ -5891,7 +5992,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="82" t="s">
         <v>202</v>
       </c>
@@ -5912,7 +6013,7 @@
       </c>
       <c r="G10" s="82"/>
     </row>
-    <row r="11" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
         <v>205</v>
       </c>
@@ -5935,7 +6036,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="38" t="s">
         <v>208</v>
       </c>
@@ -5956,7 +6057,7 @@
       </c>
       <c r="G12" s="38"/>
     </row>
-    <row r="13" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="86" t="s">
         <v>211</v>
       </c>
@@ -5977,18 +6078,18 @@
       </c>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="116" t="s">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A14" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="120"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="81" t="s">
         <v>182</v>
       </c>
@@ -6011,7 +6112,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="82" t="s">
         <v>215</v>
       </c>
@@ -6032,7 +6133,7 @@
       </c>
       <c r="G16" s="82"/>
     </row>
-    <row r="17" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
         <v>216</v>
       </c>
@@ -6053,7 +6154,7 @@
       </c>
       <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
         <v>205</v>
       </c>
@@ -6074,7 +6175,7 @@
       </c>
       <c r="G18" s="82"/>
     </row>
-    <row r="19" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="86" t="s">
         <v>217</v>
       </c>
@@ -6095,7 +6196,7 @@
       </c>
       <c r="G19" s="37"/>
     </row>
-    <row r="20" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38" t="s">
         <v>226</v>
       </c>
@@ -6116,7 +6217,7 @@
       </c>
       <c r="G20" s="82"/>
     </row>
-    <row r="21" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="86" t="s">
         <v>220</v>
       </c>
@@ -6137,18 +6238,18 @@
       </c>
       <c r="G21" s="37"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="116" t="s">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A22" s="120" t="s">
         <v>229</v>
       </c>
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="120"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="124"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="81" t="s">
         <v>182</v>
       </c>
@@ -6171,7 +6272,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="82" t="s">
         <v>230</v>
       </c>
@@ -6192,7 +6293,7 @@
       </c>
       <c r="G24" s="82"/>
     </row>
-    <row r="25" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
         <v>231</v>
       </c>
@@ -6213,7 +6314,7 @@
       </c>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="38" t="s">
         <v>232</v>
       </c>
@@ -6234,7 +6335,7 @@
       </c>
       <c r="G26" s="82"/>
     </row>
-    <row r="27" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="86" t="s">
         <v>233</v>
       </c>
@@ -6255,7 +6356,7 @@
       </c>
       <c r="G27" s="37"/>
     </row>
-    <row r="28" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="88" t="s">
         <v>234</v>
       </c>

--- a/Documentação/backLogs e Planos de ação/planoDeAção BackLog PlanilhaDeRiscos.xlsx
+++ b/Documentação/backLogs e Planos de ação/planoDeAção BackLog PlanilhaDeRiscos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pehso\Downloads\git backaup\MushRoomCompany\Documentação\backLogs e Planos de ação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SPRINT2\MushRoomCompany\MushRoomCompany\Documentação\backLogs e Planos de ação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7757BA-1B6D-48E1-BA1A-E6350EE4481C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC16EFA-A037-466E-AD32-1801EC78421B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BackLogs" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="259">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -765,9 +765,6 @@
     <t>Documento de Mudança</t>
   </si>
   <si>
-    <t>Integração com o banco de dados</t>
-  </si>
-  <si>
     <t xml:space="preserve">Teste integrado do analytics </t>
   </si>
   <si>
@@ -789,7 +786,37 @@
     <t>formulario de gmud</t>
   </si>
   <si>
-    <t>Inportante</t>
+    <t xml:space="preserve"> Funcional</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>Integração com do cadastro</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>Integração com do Login</t>
+  </si>
+  <si>
+    <t>Integração com do Dash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intregar dados do cadastro com o banco de cados  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">intregar dados do Login com o banco de cados  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">intregar dados de metricas da Dash com o banco de cados  </t>
+  </si>
+  <si>
+    <t>implementação da wlan no site instittucional 'Simulação de nuvem'</t>
+  </si>
+  <si>
+    <t>Homologação de implementação do Projeto</t>
   </si>
 </sst>
 </file>
@@ -3146,40 +3173,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X81"/>
+  <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="104.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="7"/>
-    <col min="11" max="11" width="31.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="15.88671875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="16.109375" style="7" customWidth="1"/>
-    <col min="16" max="16" width="16.44140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="104.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="7"/>
+    <col min="11" max="11" width="31.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.85546875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="7" customWidth="1"/>
     <col min="17" max="17" width="16" style="7" customWidth="1"/>
-    <col min="18" max="19" width="15.6640625" style="7" customWidth="1"/>
-    <col min="20" max="20" width="15.88671875" style="7" customWidth="1"/>
-    <col min="21" max="21" width="16.109375" style="7" customWidth="1"/>
-    <col min="22" max="22" width="16.33203125" style="7" customWidth="1"/>
-    <col min="23" max="23" width="16.6640625" style="7" customWidth="1"/>
-    <col min="24" max="24" width="15.88671875" style="7" customWidth="1"/>
-    <col min="25" max="16384" width="9.109375" style="7"/>
+    <col min="18" max="19" width="15.7109375" style="7" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" style="7" customWidth="1"/>
+    <col min="21" max="21" width="16.140625" style="7" customWidth="1"/>
+    <col min="22" max="22" width="16.28515625" style="7" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" style="7" customWidth="1"/>
+    <col min="24" max="24" width="15.85546875" style="7" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="99" t="s">
         <v>0</v>
@@ -3207,7 +3234,7 @@
       <c r="W1" s="95"/>
       <c r="X1" s="95"/>
     </row>
-    <row r="2" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3275,7 +3302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>24</v>
       </c>
@@ -3345,7 +3372,7 @@
       </c>
       <c r="X3" s="66"/>
     </row>
-    <row r="4" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
@@ -3441,7 +3468,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>36</v>
       </c>
@@ -3483,7 +3510,7 @@
       <c r="W5" s="70"/>
       <c r="X5" s="70"/>
     </row>
-    <row r="6" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>41</v>
       </c>
@@ -3512,7 +3539,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="107" t="s">
         <v>47</v>
       </c>
@@ -3541,7 +3568,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="108"/>
       <c r="B8" s="104"/>
       <c r="C8" s="104"/>
@@ -3552,7 +3579,7 @@
       <c r="H8" s="102"/>
       <c r="I8" s="110"/>
     </row>
-    <row r="9" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>50</v>
       </c>
@@ -3581,7 +3608,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>53</v>
       </c>
@@ -3613,7 +3640,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>57</v>
       </c>
@@ -3642,7 +3669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>61</v>
       </c>
@@ -3671,7 +3698,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>64</v>
       </c>
@@ -3700,7 +3727,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>67</v>
       </c>
@@ -3729,7 +3756,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>71</v>
       </c>
@@ -3758,7 +3785,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>74</v>
       </c>
@@ -3787,7 +3814,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>77</v>
       </c>
@@ -3816,7 +3843,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>80</v>
       </c>
@@ -3845,7 +3872,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>83</v>
       </c>
@@ -3874,7 +3901,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>86</v>
       </c>
@@ -3903,7 +3930,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>89</v>
       </c>
@@ -3932,7 +3959,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>92</v>
       </c>
@@ -3961,7 +3988,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>96</v>
       </c>
@@ -3990,7 +4017,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>99</v>
       </c>
@@ -4019,7 +4046,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>103</v>
       </c>
@@ -4048,7 +4075,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="76" t="s">
         <v>106</v>
       </c>
@@ -4075,7 +4102,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>109</v>
       </c>
@@ -4102,7 +4129,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>112</v>
       </c>
@@ -4129,7 +4156,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>115</v>
       </c>
@@ -4156,7 +4183,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>118</v>
       </c>
@@ -4183,7 +4210,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>121</v>
       </c>
@@ -4210,7 +4237,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>124</v>
       </c>
@@ -4237,7 +4264,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>127</v>
       </c>
@@ -4264,8 +4291,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="96" t="s">
         <v>129</v>
       </c>
@@ -4278,7 +4305,7 @@
       <c r="H35" s="96"/>
       <c r="I35" s="96"/>
     </row>
-    <row r="36" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>36</v>
       </c>
@@ -4307,7 +4334,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>50</v>
       </c>
@@ -4336,7 +4363,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>61</v>
       </c>
@@ -4365,7 +4392,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>77</v>
       </c>
@@ -4394,7 +4421,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>106</v>
       </c>
@@ -4421,7 +4448,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>109</v>
       </c>
@@ -4448,7 +4475,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>112</v>
       </c>
@@ -4475,7 +4502,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>115</v>
       </c>
@@ -4502,7 +4529,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>118</v>
       </c>
@@ -4529,7 +4556,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>121</v>
       </c>
@@ -4556,7 +4583,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>124</v>
       </c>
@@ -4583,7 +4610,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>127</v>
       </c>
@@ -4610,10 +4637,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J48" s="39"/>
     </row>
-    <row r="49" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="96" t="s">
         <v>130</v>
       </c>
@@ -4627,7 +4654,7 @@
       <c r="I49" s="97"/>
       <c r="J49" s="51"/>
     </row>
-    <row r="50" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="43" t="s">
         <v>24</v>
       </c>
@@ -4656,7 +4683,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="43" t="s">
         <v>32</v>
       </c>
@@ -4685,7 +4712,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
         <v>41</v>
       </c>
@@ -4714,7 +4741,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="64" t="s">
         <v>47</v>
       </c>
@@ -4743,7 +4770,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="65"/>
       <c r="B54" s="55"/>
       <c r="C54" s="55"/>
@@ -4754,7 +4781,7 @@
       <c r="H54" s="59"/>
       <c r="I54" s="57"/>
     </row>
-    <row r="55" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="43" t="s">
         <v>64</v>
       </c>
@@ -4783,7 +4810,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="47" t="s">
         <v>57</v>
       </c>
@@ -4812,7 +4839,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="43" t="s">
         <v>74</v>
       </c>
@@ -4841,7 +4868,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="43" t="s">
         <v>80</v>
       </c>
@@ -4870,7 +4897,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="43" t="s">
         <v>83</v>
       </c>
@@ -4899,7 +4926,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="43" t="s">
         <v>86</v>
       </c>
@@ -4928,7 +4955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="47" t="s">
         <v>71</v>
       </c>
@@ -4957,7 +4984,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="43" t="s">
         <v>80</v>
       </c>
@@ -4986,7 +5013,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="43" t="s">
         <v>118</v>
       </c>
@@ -5015,7 +5042,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
         <v>83</v>
       </c>
@@ -5044,7 +5071,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="47" t="s">
         <v>89</v>
       </c>
@@ -5073,7 +5100,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="43" t="s">
         <v>142</v>
       </c>
@@ -5102,7 +5129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="43" t="s">
         <v>143</v>
       </c>
@@ -5131,7 +5158,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="43" t="s">
         <v>144</v>
       </c>
@@ -5160,7 +5187,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="98" t="s">
         <v>145</v>
       </c>
@@ -5173,7 +5200,7 @@
       <c r="H71" s="98"/>
       <c r="I71" s="98"/>
     </row>
-    <row r="72" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>67</v>
       </c>
@@ -5181,7 +5208,7 @@
         <v>68</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>44</v>
@@ -5202,7 +5229,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>80</v>
       </c>
@@ -5231,7 +5258,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>83</v>
       </c>
@@ -5239,7 +5266,7 @@
         <v>236</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D74" s="41" t="s">
         <v>141</v>
@@ -5260,7 +5287,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>86</v>
       </c>
@@ -5268,10 +5295,10 @@
         <v>237</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>69</v>
+        <v>258</v>
       </c>
       <c r="D75" s="41" t="s">
-        <v>249</v>
+        <v>141</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>45</v>
@@ -5289,7 +5316,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="90" t="s">
         <v>96</v>
       </c>
@@ -5297,7 +5324,7 @@
         <v>238</v>
       </c>
       <c r="C76" s="91" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D76" s="41" t="s">
         <v>141</v>
@@ -5318,7 +5345,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>99</v>
       </c>
@@ -5326,7 +5353,7 @@
         <v>239</v>
       </c>
       <c r="C77" s="91" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D77" s="41" t="s">
         <v>44</v>
@@ -5347,7 +5374,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>103</v>
       </c>
@@ -5355,7 +5382,7 @@
         <v>240</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D78" s="41" t="s">
         <v>44</v>
@@ -5376,15 +5403,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>118</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>69</v>
+        <v>254</v>
       </c>
       <c r="D79" s="41" t="s">
         <v>44</v>
@@ -5405,17 +5432,19 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B80" s="92" t="s">
-        <v>242</v>
+      <c r="B80" s="9" t="s">
+        <v>252</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D80" s="41"/>
+        <v>255</v>
+      </c>
+      <c r="D80" s="41" t="s">
+        <v>44</v>
+      </c>
       <c r="E80" s="4" t="s">
         <v>45</v>
       </c>
@@ -5432,17 +5461,19 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B81" s="92" t="s">
-        <v>243</v>
+      <c r="B81" s="9" t="s">
+        <v>253</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D81" s="41"/>
+        <v>256</v>
+      </c>
+      <c r="D81" s="41" t="s">
+        <v>44</v>
+      </c>
       <c r="E81" s="4" t="s">
         <v>45</v>
       </c>
@@ -5456,6 +5487,64 @@
         <v>15</v>
       </c>
       <c r="I81" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D82" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="G82" s="15">
+        <v>21</v>
+      </c>
+      <c r="H82" s="19">
+        <v>15</v>
+      </c>
+      <c r="I82" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B83" s="92" t="s">
+        <v>241</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D83" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G83" s="15">
+        <v>8</v>
+      </c>
+      <c r="H83" s="19">
+        <v>15</v>
+      </c>
+      <c r="I83" s="22" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5513,18 +5602,18 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="67" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
         <v>146</v>
       </c>
@@ -5536,7 +5625,7 @@
       <c r="G1" s="112"/>
       <c r="H1" s="112"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="113"/>
       <c r="B2" s="114"/>
       <c r="C2" s="114"/>
@@ -5546,7 +5635,7 @@
       <c r="G2" s="114"/>
       <c r="H2" s="114"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="113"/>
       <c r="B3" s="114"/>
       <c r="C3" s="114"/>
@@ -5556,7 +5645,7 @@
       <c r="G3" s="114"/>
       <c r="H3" s="114"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="115"/>
       <c r="B4" s="116"/>
       <c r="C4" s="116"/>
@@ -5566,7 +5655,7 @@
       <c r="G4" s="116"/>
       <c r="H4" s="116"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>147</v>
       </c>
@@ -5592,7 +5681,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>1</v>
       </c>
@@ -5618,7 +5707,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>2</v>
       </c>
@@ -5644,7 +5733,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>3</v>
       </c>
@@ -5670,7 +5759,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>4</v>
       </c>
@@ -5696,7 +5785,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>5</v>
       </c>
@@ -5722,7 +5811,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>6</v>
       </c>
@@ -5748,7 +5837,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>7</v>
       </c>
@@ -5774,7 +5863,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>8</v>
       </c>
@@ -5800,7 +5889,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H4"/>
@@ -5817,19 +5906,19 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="87" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" style="87" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" style="87" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="87" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" style="87" customWidth="1"/>
-    <col min="6" max="6" width="59.5546875" style="87" customWidth="1"/>
-    <col min="7" max="7" width="36.5546875" style="87" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="87"/>
+    <col min="1" max="1" width="29.42578125" style="87" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="87" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="87" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="87" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="87" customWidth="1"/>
+    <col min="6" max="6" width="59.5703125" style="87" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" style="87" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="117" t="s">
         <v>180</v>
       </c>
@@ -5840,7 +5929,7 @@
       <c r="F1" s="118"/>
       <c r="G1" s="119"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="120" t="s">
         <v>181</v>
       </c>
@@ -5851,7 +5940,7 @@
       <c r="F2" s="121"/>
       <c r="G2" s="122"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="81" t="s">
         <v>182</v>
       </c>
@@ -5874,7 +5963,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
         <v>187</v>
       </c>
@@ -5895,7 +5984,7 @@
       </c>
       <c r="G4" s="82"/>
     </row>
-    <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>191</v>
       </c>
@@ -5916,7 +6005,7 @@
       </c>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>195</v>
       </c>
@@ -5937,7 +6026,7 @@
       </c>
       <c r="G6" s="38"/>
     </row>
-    <row r="7" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="86" t="s">
         <v>198</v>
       </c>
@@ -5958,7 +6047,7 @@
       </c>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="120" t="s">
         <v>201</v>
       </c>
@@ -5969,7 +6058,7 @@
       <c r="F8" s="123"/>
       <c r="G8" s="124"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="81" t="s">
         <v>182</v>
       </c>
@@ -5992,7 +6081,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="82" t="s">
         <v>202</v>
       </c>
@@ -6013,7 +6102,7 @@
       </c>
       <c r="G10" s="82"/>
     </row>
-    <row r="11" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>205</v>
       </c>
@@ -6036,7 +6125,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>208</v>
       </c>
@@ -6057,7 +6146,7 @@
       </c>
       <c r="G12" s="38"/>
     </row>
-    <row r="13" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="86" t="s">
         <v>211</v>
       </c>
@@ -6078,7 +6167,7 @@
       </c>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="120" t="s">
         <v>214</v>
       </c>
@@ -6089,7 +6178,7 @@
       <c r="F14" s="123"/>
       <c r="G14" s="124"/>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="81" t="s">
         <v>182</v>
       </c>
@@ -6112,7 +6201,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="82" t="s">
         <v>215</v>
       </c>
@@ -6133,7 +6222,7 @@
       </c>
       <c r="G16" s="82"/>
     </row>
-    <row r="17" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>216</v>
       </c>
@@ -6154,7 +6243,7 @@
       </c>
       <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>205</v>
       </c>
@@ -6175,7 +6264,7 @@
       </c>
       <c r="G18" s="82"/>
     </row>
-    <row r="19" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="86" t="s">
         <v>217</v>
       </c>
@@ -6196,7 +6285,7 @@
       </c>
       <c r="G19" s="37"/>
     </row>
-    <row r="20" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>226</v>
       </c>
@@ -6217,7 +6306,7 @@
       </c>
       <c r="G20" s="82"/>
     </row>
-    <row r="21" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="86" t="s">
         <v>220</v>
       </c>
@@ -6238,7 +6327,7 @@
       </c>
       <c r="G21" s="37"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="120" t="s">
         <v>229</v>
       </c>
@@ -6249,7 +6338,7 @@
       <c r="F22" s="123"/>
       <c r="G22" s="124"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="81" t="s">
         <v>182</v>
       </c>
@@ -6272,7 +6361,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="82" t="s">
         <v>230</v>
       </c>
@@ -6293,7 +6382,7 @@
       </c>
       <c r="G24" s="82"/>
     </row>
-    <row r="25" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
         <v>231</v>
       </c>
@@ -6314,7 +6403,7 @@
       </c>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="38" t="s">
         <v>232</v>
       </c>
@@ -6335,7 +6424,7 @@
       </c>
       <c r="G26" s="82"/>
     </row>
-    <row r="27" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="86" t="s">
         <v>233</v>
       </c>
@@ -6356,7 +6445,7 @@
       </c>
       <c r="G27" s="37"/>
     </row>
-    <row r="28" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="88" t="s">
         <v>234</v>
       </c>
